--- a/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_openai-gpt-oss-120b.xlsx
+++ b/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_openai-gpt-oss-120b.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -622,19 +622,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT s.LocationID
-FROM tblFieldDataSnakeDataCollection AS s
-JOIN tblFieldDataTurtleMeasurements AS t
-  ON s.LocationID = t.LocationID;</t>
+          <t>SELECT DISTINCT LocationID
+FROM tblFieldDataSnakeDataCollection
+INTERSECT
+SELECT DISTINCT LocationID
+FROM tblFieldDataTurtleMeasurements;</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -675,7 +676,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,7 +712,7 @@
         <is>
           <t>SELECT
     LocationID,
-    SUM(Count) AS total_minnows
+    SUM(Count) AS TotalMinnows
 FROM
     tblFieldDataMinnowTrapSurveys
 GROUP BY
@@ -720,11 +721,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -757,7 +758,7 @@
           <t>SELECT
     LocationID,
     "Trap_#" AS TrapNumber,
-    SUM(Count) AS TotalMinnows
+    SUM("Count") AS TotalMinnows
 FROM tblFieldDataMinnowTrapSurveys
 GROUP BY
     LocationID,
@@ -769,11 +770,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -805,7 +806,7 @@
         <is>
           <t>SELECT
     Stage,
-    SUM(Count) AS total_count
+    SUM(Count) AS MinnowCount
 FROM
     tblFieldDataMinnowTrapSurveys
 WHERE
@@ -816,11 +817,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -850,7 +851,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SELECT AVG(TempC) AS average_water_temperature_celsius
+          <t>SELECT AVG(TempC) AS average_temp
 FROM tblFieldDataWaterProperties
 WHERE LocationID IN (
     SELECT LocationID
@@ -860,11 +861,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -905,11 +906,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -944,18 +945,16 @@
 FROM   tblFieldDataTurtleMeasurements AS m
 JOIN   tblFieldDataTurtleTrapSurveys AS t
        ON m.RecordID = t.RecordID
-WHERE  (m.Sex &lt;&gt; t.Sex)
-   OR (m.Sex IS NULL AND t.Sex IS NOT NULL)
-   OR (m.Sex IS NOT NULL AND t.Sex IS NULL);</t>
+WHERE  COALESCE(m.Sex, '') &lt;&gt; COALESCE(t.Sex, '');</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -996,11 +995,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1028,21 +1027,26 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT MAX(SVL) AS highest_svl
+FROM tblFieldDataSnakeDataCollection;</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>319</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1079,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1111,7 +1115,7 @@
         <is>
           <t>SELECT
     Species_Code,
-    AVG(TLength) AS avg_total_length,
+    AVG(TLength) AS avg_length,
     AVG(Weight) AS avg_weight
 FROM tblFieldDataSnakeDataCollection
 GROUP BY Species_Code;</t>
@@ -1119,11 +1123,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1154,23 +1158,21 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>SELECT 
-    "Agency/Title" AS Agency,
-    COUNT(*) AS MeasurementCount
+    o."Agency/Title" AS Agency,
+    COUNT(m.RecordID) AS MeasurementCount
 FROM tblFieldDataTurtleMeasurements AS m
-JOIN tlinkObservers AS l
-    ON m.EventID = l.EventID
-JOIN Observer_LU AS o
-    ON l.ObsInits = o.ObsInits
-GROUP BY "Agency/Title";</t>
+JOIN tlinkObservers AS l ON m.EventID = l.EventID
+JOIN Observer_LU AS o ON l.ObsInits = o.ObsInits
+GROUP BY o."Agency/Title";</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1202,8 +1204,8 @@
         <is>
           <t>SELECT DISTINCT e.EventID
 FROM tblEvents e
-JOIN tblEventDataHerps d ON e.EventID = d.EventID
-JOIN Observer_LU o ON d.ObsInits = o.ObsInits
+JOIN tlinkObservers lo ON e.EventID = lo.EventID
+JOIN Observer_LU o ON lo.ObsInits = o.ObsInits
 WHERE e.Year = 2004
   AND o.FirstName = 'Allison'
   AND o.LastName = 'Turner';</t>
@@ -1211,18 +1213,18 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -1245,19 +1247,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT o.ObsInits, o.FirstName, o.LastName
+          <t>SELECT DISTINCT o.ObsInits,
+                o.FirstName,
+                o.LastName
 FROM Observer_LU AS o
-JOIN tlinkObservers AS tl ON o.ObsInits = tl.ObsInits
-JOIN tblFieldDataTurtleMeasurements AS m ON tl.EventID = m.EventID;</t>
+JOIN tlinkObservers AS tl
+  ON o.ObsInits = tl.ObsInits
+JOIN tblFieldDataTurtleMeasurements AS m
+  ON tl.EventID = m.EventID;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1293,11 +1299,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1373,19 +1379,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SELECT t.Description, COUNT(*) AS measurement_count
-FROM tblFieldDataMinnowTrapSurveys m
-JOIN tluStage t ON m.Stage = t.Stage
+          <t>SELECT t.Description,
+       COUNT(*) AS measurement_count
+FROM tblFieldDataMinnowTrapSurveys AS m
+JOIN tluStage AS t
+  ON m.Stage = t.Stage
 GROUP BY t.Description;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1422,11 +1430,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1463,11 +1471,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1497,20 +1505,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SELECT "Board_#" AS BoardNumber, Type
-FROM tblFieldDataCoverBoard AS b
-JOIN tblLocations AS l ON b.LocationID = l.LocationID
-WHERE l.SiteID = '18CB1' 
-  AND "Board_#" &lt;&gt; 0;</t>
+          <t>SELECT f."Board_#" AS BoardNumber,
+       f.Type
+FROM tblFieldDataCoverBoard AS f
+JOIN tblLocations AS l
+  ON f.LocationID = l.LocationID
+WHERE l.SiteID = '18CB1'
+  AND f."Board_#" &lt;&gt; 0;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1551,11 +1561,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1598,11 +1608,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1639,7 +1649,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1673,27 +1683,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SELECT
+          <t>SELECT 
     lp.PointID,
-    fdc.SnakeID,
-    fdc."Board_#" AS BoardNumber,
+    f.SnakeID,
+    f."Board_#" AS BoardNumber,
     lp.UTMX,
     lp.UTMY
-FROM tblFieldDataCoverBoard AS fdc
+FROM tblFieldDataCoverBoard AS f
 JOIN tblLocations AS l
-    ON fdc.LocationID = l.LocationID
+    ON f.LocationID = l.LocationID
 JOIN tblLocationsPoints AS lp
-    ON fdc.LocationID = lp.LocationID
+    ON f.LocationID = lp.LocationID
 WHERE l.SiteID = '18CB1';</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1723,19 +1733,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT t.ObsInits
-FROM tlinkObservers AS t
-JOIN tblFieldDataCoverBoard AS c
-  ON t.EventID = c.EventID;</t>
+          <t>SELECT DISTINCT ObsInits
+FROM tlinkObservers
+JOIN tblFieldDataCoverBoard USING (EventID);</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>488</v>
+        <v>393</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1810,22 +1819,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SELECT
-    ObsInits,
-    AVG(AirTemp) AS AvgAirTemp
-FROM
-    tblEventDataHerps
-GROUP BY
-    ObsInits;</t>
+          <t>SELECT ObsInits,
+       AVG(AirTemp) AS avg_air_temp
+FROM tblEventDataHerps
+GROUP BY ObsInits;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1866,11 +1872,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1948,7 +1954,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1989,7 +1995,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2030,7 +2036,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2075,7 +2081,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2116,7 +2122,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2152,18 +2158,18 @@
         <is>
           <t>SELECT
     Sex,
-    AVG(Carapace_Length)   AS Avg_Carapace_Length,
-    AVG(Carapace_Width)    AS Avg_Carapace_Width,
-    AVG(Plastron_Length)   AS Avg_Plastron_Length,
-    AVG(Plastron_Width)    AS Avg_Plastron_Width,
-    AVG(Weight)            AS Avg_Weight
+    AVG(Carapace_Length)  AS Avg_Carapace_Length,
+    AVG(Carapace_Width)   AS Avg_Carapace_Width,
+    AVG(Plastron_Length)  AS Avg_Plastron_Length,
+    AVG(Plastron_Width)   AS Avg_Plastron_Width,
+    AVG(Weight)           AS Avg_Weight
 FROM tblFieldDataTurtleMeasurements
 GROUP BY Sex;</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2204,11 +2210,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2250,7 +2256,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2285,21 +2291,17 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>SELECT CommonName
-FROM tlu_PlantSpecies ps
-WHERE NOT EXISTS (
-    SELECT 1
-    FROM tbl_Nests n
-    WHERE n.SpCode = ps.SpeciesCode
-);</t>
+FROM tlu_PlantSpecies
+WHERE SpeciesCode NOT IN (SELECT SpCode FROM tbl_Nests);</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2327,21 +2329,37 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT 
+    p.genus,
+    COUNT(*) AS nest_count
+FROM 
+    tbl_Nests n
+JOIN 
+    tlu_PlantSpecies p
+    ON n.SpCode = p.SpeciesCode
+GROUP BY 
+    p.genus
+ORDER BY 
+    nest_count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>448</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2370,11 +2388,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2404,17 +2422,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Event_ID) AS decay_event_count
+          <t>SELECT COUNT(DISTINCT Event_ID) AS event_count
 FROM tbl_Deadwood;</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2444,22 +2462,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SELECT
-    Event_ID,
-    COUNT(*) AS decayed_log_count
-FROM
-    tbl_Deadwood
-GROUP BY
-    Event_ID;</t>
+          <t>SELECT Event_ID, COUNT(*) AS decayed_logs
+FROM tbl_Deadwood
+GROUP BY Event_ID;</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2504,18 +2518,18 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2538,31 +2552,36 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SELECT 
-    e.Event_ID,
-    COUNT(d.Event_ID) AS decayed_logs_count,
-    COUNT(n.Event_ID) AS nested_subplots_count
-FROM tbl_Events AS e
-LEFT JOIN tbl_Deadwood AS d ON e.Event_ID = d.Event_ID
-LEFT JOIN tbl_Nests AS n ON e.Event_ID = n.Event_ID
-GROUP BY e.Event_ID
-HAVING COUNT(d.Event_ID) &gt; 0 AND COUNT(n.Event_ID) &gt; 0;</t>
+          <t>SELECT e.Event_ID,
+       dw.deadwood_count AS decayed_logs,
+       ns.nest_count AS nested_subplots
+FROM tbl_Events e
+JOIN (
+    SELECT Event_ID, COUNT(*) AS deadwood_count
+    FROM tbl_Deadwood
+    GROUP BY Event_ID
+) dw ON e.Event_ID = dw.Event_ID
+JOIN (
+    SELECT Event_ID, COUNT(*) AS nest_count
+    FROM tbl_Nests
+    GROUP BY Event_ID
+) ns ON e.Event_ID = ns.Event_ID;</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>589</v>
+        <v>767</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2585,41 +2604,35 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SELECT 
-    l.Plot_ID,
-    l.X_Coord,
-    l.Y_Coord,
-    l.Directions
-FROM 
-    tbl_Locations l
-WHERE 
-    l.Location_ID = (
-        SELECT 
-            e.Location_ID
-        FROM 
-            tbl_Events e
-        GROUP BY 
-            e.Location_ID
-        ORDER BY 
-            COUNT(*) DESC
-        LIMIT 1
-    );</t>
+          <t>SELECT l.Plot_ID,
+       l.X_Coord,
+       l.Y_Coord,
+       l.Directions
+FROM tbl_Locations l
+JOIN tbl_Events e ON l.Location_ID = e.Location_ID
+WHERE e.Event_ID = (
+    SELECT n.Event_ID
+    FROM tbl_Nests n
+    GROUP BY n.Event_ID
+    ORDER BY COUNT(*) DESC
+    LIMIT 1
+);</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2644,18 +2657,17 @@
         <is>
           <t>SELECT AVG(o.DBH) AS avg_dbh
 FROM tbl_Overstory AS o
-JOIN tlu_PlantSpecies AS p
-  ON o.SpCode = p.SpeciesCode
+JOIN tlu_PlantSpecies AS p ON o.SpCode = p.SpeciesCode
 WHERE p.genus = 'Acer';</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2686,21 +2698,25 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>SELECT
-    cp.CanPos_Name,
+    t.CanPos_Name,
     COUNT(o.CanPos) AS tree_count
-FROM tlu_Can_Pos AS cp
-LEFT JOIN tbl_Overstory AS o
-    ON o.CanPos = cp.CanPos_Num
-GROUP BY cp.CanPos_Name;</t>
+FROM
+    tlu_Can_Pos AS t
+LEFT JOIN
+    tbl_Overstory AS o
+ON
+    t.CanPos_Num = o.CanPos
+GROUP BY
+    t.CanPos_Name;</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2730,16 +2746,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SELECT o.TreeTag, s.CommonName
+          <t>SELECT o.TreeTag,
+       s.CommonName
 FROM tbl_Overstory AS o
-JOIN tlu_Tree_Cond AS c ON o.TreeCond = c.TreeCond_Num
-JOIN tlu_PlantSpecies AS s ON o.SpCode = s.SpeciesCode
+JOIN tlu_Tree_Cond AS c
+  ON o.TreeCond = c.TreeCond_Num
+JOIN tlu_PlantSpecies AS s
+  ON o.SpCode = s.SpeciesCode
 WHERE c.TreeCond_Text = 'down';</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2773,7 +2792,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SELECT spcode, COUNT(*) AS sapling_count
+          <t>SELECT spcode, COUNT(*) AS count
 FROM tbl_Saplings
 GROUP BY spcode
 HAVING COUNT(*) &gt; 20;</t>
@@ -2781,11 +2800,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -2822,11 +2841,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2858,7 +2877,7 @@
         <is>
           <t>SELECT
     SpCode,
-    MAX(Density) AS HighestDensity
+    MAX(Density) AS MaxDensity
 FROM
     tbl_Seedlings
 GROUP BY
@@ -2867,7 +2886,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2907,11 +2926,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2942,18 +2961,18 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>SELECT l.Directions
-FROM tbl_Locations l
-JOIN tbl_Tree_Tags t ON l.Location_ID = t.Location_ID
+FROM tbl_Tree_Tags t
+JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
 WHERE t.Tree_Tag_ID = 6;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -2990,7 +3009,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -3027,7 +3046,7 @@
           <t>SELECT 
     n.Event_ID,
     c.CoverClass_Text,
-    COUNT(*) AS NestCount
+    COUNT(*) AS Nest_Count
 FROM tbl_Nests AS n
 JOIN tlu_Cover_Cls AS c
     ON n.Cover = c.CoverClass_Num
@@ -3041,11 +3060,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -3075,20 +3094,18 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SELECT 
-    Witness_Azimuth AS azimuth,
-    Witness_stake AS distance
+          <t>SELECT Witness_Azimuth, Witness_stake
 FROM tbl_WitnessTrees
 WHERE Witness_DBH &lt; 30;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -3130,11 +3147,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3164,20 +3181,20 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SELECT t.ListedName, t.ValidName
+          <t>SELECT r.ListedName, r.ValidName
 FROM tbl_Events e
 JOIN tbl_Locations l ON e.Location_ID = l.Location_ID
-JOIN tlu_Roads_and_Trails t ON t.ValidName = l.Trail OR t.ListedName = l.Trail
+JOIN tlu_Roads_and_Trails r ON r.ValidName = l.Trail OR r.ListedName = l.Trail
 WHERE e.Event_ID = 2;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3208,22 +3225,22 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>SELECT
-    pn.State,
-    pn.County,
+    p.State,
+    p.County,
     COUNT(*) AS tag_count
-FROM tbl_Tree_Tags tt
-JOIN tbl_Locations l ON tt.Location_ID = l.Location_ID
-JOIN tlu_PlaceNames pn ON l.PlaceNameID = pn.ID
-GROUP BY pn.State, pn.County;</t>
+FROM tbl_Tree_Tags t
+JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
+JOIN tlu_PlaceNames p ON l.PlaceNameID = p.ID
+GROUP BY p.State, p.County;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3260,11 +3277,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3295,19 +3312,19 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>SELECT tp.TopoPosition
-FROM tbl_Locations l
-JOIN tlu_topo_position tp ON l.Topo_Position = tp.ID
+FROM tbl_Locations AS l
+JOIN tlu_topo_position AS tp ON l.Topo_Position = tp.ID
 WHERE l.X_Coord = 269647
   AND l.Y_Coord = 3943851;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -3344,11 +3361,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -3385,11 +3402,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -3426,7 +3443,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3464,20 +3481,20 @@
                 p.species,
                 p.CommonName
 FROM tbl_Overstory AS o
-JOIN tbl_Tree_Tags AS tt      ON o.TreeTag = tt.Tree_Tag_ID
-JOIN tbl_Locations AS l       ON tt.Location_ID = l.Location_ID
-JOIN tlu_PlaceNames AS pn     ON l.PlaceNameID = pn.ID
-JOIN tlu_PlantSpecies AS p    ON o.SpCode = p.SpeciesCode
+JOIN tbl_Tree_Tags AS t      ON o.TreeTag = t.Tree_Tag_ID
+JOIN tbl_Locations AS l      ON t.Location_ID = l.Location_ID
+JOIN tlu_PlaceNames AS pn    ON l.PlaceNameID = pn.ID
+JOIN tlu_PlantSpecies AS p   ON o.SpCode = p.SpeciesCode
 WHERE pn.County = 'Swain';</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -3507,26 +3524,26 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SELECT p.species, p.CommonName
+          <t>SELECT DISTINCT p.Species, p.CommonName
 FROM tlu_PlantSpecies p
-WHERE p.SpeciesCode IN (SELECT SpCode FROM tbl_Overstory)
-  AND p.SpeciesCode NOT IN (SELECT SpCode FROM tbl_Seedlings);</t>
+JOIN tbl_Overstory o ON p.SpeciesCode = o.SpCode
+WHERE o.SpCode NOT IN (SELECT SpCode FROM tbl_Seedlings);</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3573,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3601,7 +3618,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3637,20 +3654,20 @@
         <is>
           <t>SELECT
     p.Pres_Text,
-    COUNT(n.Presence_First) AS nest_count
-FROM tlu_Presence AS p
-LEFT JOIN tbl_Nests AS n
+    COUNT(*) AS nest_count
+FROM tbl_Nests n
+JOIN tlu_Presence p
     ON n.Presence_First = p.Pres_Num
 GROUP BY p.Pres_Text;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -3682,18 +3699,20 @@
         <is>
           <t>SELECT
     Decay,
-    MAX(MPD) AS highest_midpoint_diameter_meters
-FROM tbl_Deadwood
-GROUP BY Decay;</t>
+    MAX(MPD) AS highest_mpd_meters
+FROM
+    tbl_Deadwood
+GROUP BY
+    Decay;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -3734,7 +3753,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3769,29 +3788,25 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>SELECT ds.DecayStage_Descr
-FROM tlu_DecayStage ds
-JOIN (
-    SELECT DecayStage_ID
-    FROM tbl_MidpointDiameter
-    ORDER BY MidpointDiameter_m ASC
-    LIMIT 1
-) md ON ds.DecayStage_ID = md.DecayStage_ID;</t>
+FROM tbl_Deadwood dw
+JOIN tlu_DecayStage ds ON dw.Decay = ds.DecayStage_ID
+WHERE dw.MPD = (SELECT MIN(MPD) FROM tbl_Deadwood);</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>930</v>
+        <v>506</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3814,19 +3829,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SELECT DecayStage_Descr
-FROM tlu_DecayStage
-ORDER BY DecayStage_ID
-LIMIT 1;</t>
+          <t>SELECT ds.DecayStage_Descr
+FROM tbl_Deadwood dw
+JOIN tlu_DecayStage ds ON dw.Decay = ds.DecayStage_ID
+WHERE dw.Length = (SELECT MIN(Length) FROM tbl_Deadwood);</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>868</v>
+        <v>497</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3856,18 +3871,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SELECT SiteDescription, Slope, Aspect, Loc_Notes, Accuracy_Notes
+          <t>SELECT
+    SiteDescription,
+    Slope,
+    Aspect,
+    Loc_Notes,
+    Accuracy_Notes
 FROM tbl_Locations
 WHERE Slope_shape = 'convex';</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -3904,7 +3924,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3949,7 +3969,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3991,7 +4011,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4032,7 +4052,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4066,27 +4086,30 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SELECT 
+          <t>SELECT
     bc.Breed,
     bc.Definition,
-    COUNT(v.Common_Name) AS observation_count
-FROM Breeding_Codes AS bc
-LEFT JOIN VERTEBRATES AS v
+    COUNT(v.BREED) AS observation_count
+FROM
+    Breeding_Codes AS bc
+LEFT JOIN
+    VERTEBRATES AS v
     ON bc.Breed = v.BREED
     AND v.Common_Name = 'mule deer'
-GROUP BY 
+GROUP BY
     bc.Breed,
     bc.Definition
-ORDER BY bc.Breed;</t>
+ORDER BY
+    bc.Breed;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>667</v>
+        <v>598</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4123,11 +4146,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -4161,19 +4184,19 @@
 FROM INVERTEBRATES
 WHERE Family IS NOT NULL
   AND Family NOT IN (
-    SELECT Invert_Family
-    FROM Invert_Family
-    WHERE Invert_Family IS NOT NULL
+      SELECT Invert_Family
+      FROM Invert_Family
+      WHERE Invert_Family IS NOT NULL
   );</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -4210,11 +4233,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -4259,11 +4282,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -4300,7 +4323,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4334,18 +4357,18 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS count
+          <t>SELECT COUNT(*) AS mule_deer_roadkill_2015
 FROM Roadkill
 WHERE Year = '2015' AND Species = 'mule deer';</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -4386,11 +4409,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -4418,21 +4441,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month
+FROM Roadkill
+ORDER BY CAST(number_killed AS INTEGER) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>370</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -4457,28 +4487,18 @@
         <is>
           <t>SELECT
     hc.Definition,
-    COALESCE(v.vertebrate_count, 0) AS vertebrate_count,
-    COALESCE(i.invertebrate_count, 0) AS invertebrate_count
-FROM HABITAT_CODES hc
-LEFT JOIN (
-    SELECT Habitat, COUNT(*) AS vertebrate_count
-    FROM VERTEBRATES
-    GROUP BY Habitat
-) v ON v.Habitat = hc.Code
-LEFT JOIN (
-    SELECT Habitat, COUNT(*) AS invertebrate_count
-    FROM INVERTEBRATES
-    GROUP BY Habitat
-) i ON i.Habitat = hc.Code;</t>
+    (SELECT COUNT(*) FROM VERTEBRATES v WHERE v.Habitat = hc.Code) AS vertebrate_count,
+    (SELECT COUNT(*) FROM INVERTEBRATES i WHERE i.Habitat = hc.Code) AS invertebrate_count
+FROM HABITAT_CODES hc;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4509,19 +4529,19 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>SELECT hc.Definition
-FROM HABITAT_CODES AS hc
-JOIN INVERTEBRATES AS iv ON iv.Habitat = hc.Code
+FROM HABITAT_CODES hc
+JOIN INVERTEBRATES i ON i.Habitat = hc.Code
 GROUP BY hc.Code, hc.Definition
 HAVING COUNT(*) &gt; 40;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -4565,7 +4585,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4603,7 +4623,7 @@
     i.Observer AS InvertebrateObserver,
     v.Observer AS VertebrateObserver,
     i.Date,
-    h.Definition AS HabitatDefinition
+    h.Definition
 FROM INVERTEBRATES i
 JOIN VERTEBRATES v
     ON i.Habitat = v.Habitat
@@ -4614,11 +4634,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -4648,18 +4668,20 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SELECT OBS_TYPE, COUNT(*) AS record_count
+          <t>SELECT
+    OBS_TYPE,
+    COUNT(*) AS record_count
 FROM INVERTEBRATES
 GROUP BY OBS_TYPE;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -4696,11 +4718,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -4739,11 +4761,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4780,7 +4802,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4822,7 +4844,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4866,11 +4888,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -4910,7 +4932,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4951,11 +4973,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -4992,7 +5014,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -5026,7 +5048,9 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SELECT OBS_TYPE, COUNT(*) AS observation_count
+          <t>SELECT
+    OBS_TYPE,
+    COUNT(*) AS observation_count
 FROM INVERTEBRATES
 WHERE Location = 'Hot springs'
 GROUP BY OBS_TYPE;</t>
@@ -5034,11 +5058,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5068,8 +5092,9 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SELECT Survey,
-       COUNT(*) AS observation_count
+          <t>SELECT
+    Survey,
+    COUNT(*) AS observation_count
 FROM VERTEBRATES
 WHERE Observer = 'stefanic'
 GROUP BY Survey;</t>
@@ -5077,11 +5102,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -5119,7 +5144,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -5166,7 +5191,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5207,11 +5232,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -5246,7 +5271,6 @@
     v.Common_Name,
     v.Scientific_Name,
     h.Definition AS Habitat_Definition,
-    v.Observer,
     v.Number
 FROM VERTEBRATES v
 JOIN HABITAT_CODES h ON v.Habitat = h.Code
@@ -5255,11 +5279,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -5290,27 +5314,28 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>SELECT SCIENTIFIC_NAME
-FROM WILDLIFE_MASTERLIST
-WHERE SCIENTIFIC_NAME NOT IN (
-    SELECT Scientific_Name
-    FROM VERTEBRATES
+FROM WILDLIFE_MASTERLIST wm
+WHERE NOT EXISTS (
+    SELECT 1
+    FROM VERTEBRATES v
+    WHERE v.Scientific_Name = wm.SCIENTIFIC_NAME
 );</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="H112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5368,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5389,7 +5414,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5421,21 +5446,30 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker
+FROM Roadkill
+WHERE Year = '2021'
+GROUP BY HWY_Mile_Marker
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>475</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5492,9 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SELECT OBS_TYPE, COUNT(*) AS observation_count
+          <t>SELECT
+    OBS_TYPE,
+    COUNT(*) AS observation_count
 FROM VERTEBRATES
 WHERE Observer = 'Buckley'
 GROUP BY OBS_TYPE;</t>
@@ -5466,11 +5502,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5508,7 +5544,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5553,11 +5589,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -5600,7 +5636,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5639,17 +5675,17 @@
 WHERE Habitat IN (
     SELECT Habitat
     FROM VERTEBRATES
-    WHERE Common_Name = 'northern mockingbird'
+    WHERE Common_Name = 'Northern Mockingbird'
 );</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5685,11 +5721,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
@@ -5720,25 +5756,25 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>SELECT d.Event_Notes, e.Location_ID
-FROM tbl_Events e
-JOIN tbl_Event_Details d ON e.Event_ID = d.Event_ID
+FROM tbl_Events AS e
+JOIN tbl_Event_Details AS d ON e.Event_ID = d.Event_ID
 WHERE DATE(e.Start_Date) = '2011-08-05';</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5761,31 +5797,28 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SELECT 
-    d.Event_Notes,
-    l.Loc_Name
-FROM tbl_Event_Details AS d
-JOIN tbl_Events AS e
-    ON d.Event_ID = e.Event_ID
-JOIN tbl_Locations AS l
-    ON e.Location_ID = l.Location_ID
-WHERE date(e.Start_Date) = '2011-08-05';</t>
+          <t>SELECT d.Event_Notes,
+       l.Loc_Name
+FROM   tbl_Event_Details d
+JOIN   tbl_Events e ON d.Event_ID = e.Event_ID
+JOIN   tbl_Locations l ON e.Location_ID = l.Location_ID
+WHERE  date(e.Start_Date) = '2011-08-05';</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5814,11 +5847,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -5850,17 +5883,17 @@
         <is>
           <t>SELECT COUNT(DISTINCT m.Event_ID) AS event_count
 FROM tbl_MacroHabitat AS m
-INNER JOIN tbl_MicroHabitat AS mi
-    ON m.Event_ID = mi.Event_ID;</t>
+JOIN tbl_MicroHabitat AS mi
+  ON m.Event_ID = mi.Event_ID;</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -5897,7 +5930,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5929,21 +5962,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Reason, "Table" AS TableName, Field, Date_Change
+FROM tbl_Edit_Log
+ORDER BY Date_Change DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>481</v>
       </c>
       <c r="H127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5966,25 +6006,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SELECT AVG(Soil_Dist) AS avg_soil_disturbance_percent
+          <t>SELECT AVG(Soil_Dist) AS avg_soil_disturbance
 FROM tbl_MicroHabitat
-WHERE SurfaceWater &lt;&gt; 0;</t>
+WHERE SurfaceWater = 1;</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -6005,21 +6045,40 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT 
+    mh.LightIndex,
+    mh.Evergreen,
+    mh.Litter,
+    mh.VegHeight,
+    l.Elevation
+FROM tbl_Events AS e
+JOIN tbl_Locations AS l ON e.Location_ID = l.Location_ID
+JOIN tbl_MicroHabitat AS mh ON e.Event_ID = mh.Event_ID
+WHERE DATE(e.Start_Date) = '2009-07-28'
+  AND l.Elevation = (
+      SELECT MAX(l2.Elevation)
+      FROM tbl_Events AS e2
+      JOIN tbl_Locations AS l2 ON e2.Location_ID = l2.Location_ID
+      WHERE DATE(e2.Start_Date) = '2009-07-28'
+  );</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>750</v>
       </c>
       <c r="H129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6048,11 +6107,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -6089,11 +6148,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6123,9 +6182,8 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SELECT
-    SampleYear,
-    COUNT(DISTINCT Species) AS SpeciesCount
+          <t>SELECT SampleYear,
+       COUNT(DISTINCT Species) AS SpeciesCount
 FROM tlu_Species_ORCA
 GROUP BY SampleYear
 ORDER BY SampleYear;</t>
@@ -6133,7 +6191,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -6171,17 +6229,16 @@
     SampleYear,
     COUNT(DISTINCT Species) AS distinct_species_count
 FROM tlu_Species_REDW
-GROUP BY SampleYear
-ORDER BY SampleYear;</t>
+GROUP BY SampleYear;</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6221,11 +6278,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -6255,19 +6312,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT s.Species
-FROM tlu_Species_LAVO AS s
-JOIN tlu_Species_ORCA AS o
-  ON s.Species = o.Species;</t>
+          <t>SELECT DISTINCT o.Species
+FROM tlu_Species_ORCA AS o
+JOIN tlu_Species_LAVO AS l
+  ON o.Species = l.Species;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6304,7 +6361,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6345,7 +6402,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6379,13 +6436,13 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Enum_Group) AS distinct_group_count
+          <t>SELECT COUNT(DISTINCT Enum_Group) AS enumeration_group_count
 FROM tlu_Enumerations;</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6427,7 +6484,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6461,19 +6518,20 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SELECT Enum_Group,
-       COUNT(DISTINCT Enum_Code) AS code_count
+          <t>SELECT
+    Enum_Group,
+    COUNT(DISTINCT Enum_Code) AS code_count
 FROM tlu_Enumerations
 GROUP BY Enum_Group;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6514,7 +6572,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6548,8 +6606,9 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SELECT strftime('%Y', Revision_Date) AS Year,
-       COUNT(*) AS Revision_Count
+          <t>SELECT 
+    strftime('%Y', Revision_Date) AS Year,
+    COUNT(*) AS RevisionCount
 FROM tbl_Db_Revisions
 GROUP BY Year
 ORDER BY Year;</t>
@@ -6557,18 +6616,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6589,21 +6648,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route
+FROM tbl_Sites
+ORDER BY Site_Start_Y DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>366</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6699,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6665,21 +6731,40 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT s.Site_Name,
+       l.Location_Count
+FROM (
+    SELECT Site_ID, COUNT(*) AS Location_Count
+    FROM tbl_Locations
+    GROUP BY Site_ID
+) l
+JOIN tbl_Sites s ON s.Site_ID = l.Site_ID
+WHERE l.Location_Count = (
+    SELECT MAX(cnt) 
+    FROM (
+        SELECT COUNT(*) AS cnt
+        FROM tbl_Locations
+        GROUP BY Site_ID
+    )
+);</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>549</v>
       </c>
       <c r="H145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6710,11 +6795,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6742,21 +6827,33 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT c.First_Name
+FROM tlu_Contacts AS c
+JOIN (
+    SELECT Contact_ID, COUNT(DISTINCT Event_ID) AS cnt
+    FROM xref_Event_Contacts
+    GROUP BY Contact_ID
+) AS ec ON c.Contact_ID = ec.Contact_ID
+ORDER BY ec.cnt DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>551</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6792,18 +6889,18 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6824,21 +6921,32 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT
+    l.Loc_Name,
+    COUNT(e.Location_ID) AS event_count
+FROM tbl_Events e
+JOIN tbl_Locations l ON e.Location_ID = l.Location_ID
+GROUP BY l.Location_ID, l.Loc_Name
+ORDER BY event_count DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>450</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -6859,21 +6967,34 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT 
+    s.Site_Name,
+    s.Site_Desc,
+    COUNT(e.Location_ID) AS event_count
+FROM tbl_Sites AS s
+JOIN tbl_Locations AS l ON s.Site_ID = l.Site_ID
+JOIN tbl_Events AS e ON l.Location_ID = e.Location_ID
+GROUP BY s.Site_ID, s.Site_Name, s.Site_Desc
+ORDER BY event_count DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>522</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6907,7 +7028,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6948,11 +7069,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -6995,11 +7116,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -7027,21 +7148,32 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT s.Site_Name,
+       COUNT(*) AS infestation_count
+FROM tbl_Sites AS s
+JOIN tbl_Locations AS l ON s.Site_ID = l.Site_ID
+WHERE l.Loc_Type = 'infestation'
+GROUP BY s.Site_ID, s.Site_Name
+ORDER BY infestation_count DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>578</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -7073,11 +7205,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -7114,11 +7246,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -7148,18 +7280,18 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) 
-FROM tbl_Locations 
+          <t>SELECT COUNT(*) AS infestation_count
+FROM tbl_Locations
 WHERE Rnd_Plt_In = 'Infested';</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7204,11 +7336,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -7245,11 +7377,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -7280,33 +7412,32 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>SELECT 
-    m.MacroHab,
-    m.MicroHab,
-    m.Hydrology,
-    m.LandUse,
-    m.Slope,
-    m.Aspect
-FROM tbl_MacroHabitat AS m
+    mh.MacroHab,
+    mh.MicroHab,
+    mh.Hydrology,
+    mh.LandUse,
+    mh.Slope,
+    mh.Aspect
+FROM tbl_MacroHabitat AS mh
 JOIN tbl_Events AS e
-    ON m.Event_ID = e.Event_ID
-WHERE strftime('%Y', e.Start_Date) = '2015'
-  AND strftime('%m', e.Start_Date) = '07';</t>
+    ON mh.Event_ID = e.Event_ID
+WHERE strftime('%Y-%m', e.Start_Date) = '2015-07';</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7343,11 +7474,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7387,18 +7518,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
         <v>345</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7428,11 +7559,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -7469,7 +7600,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7511,18 +7642,18 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7556,11 +7687,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -7599,11 +7730,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7640,7 +7771,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7675,19 +7806,18 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>SELECT AVG(s.Density) AS average_density
-FROM tbl_Seedlings AS s
-JOIN tlu_PlantSpecies AS p
-  ON s.SpCode = p.SpeciesCode
+FROM tbl_Seedlings s
+JOIN tlu_PlantSpecies p ON p.SpeciesCode = s.SpCode
 WHERE p.genus = 'Acer';</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7718,7 +7848,7 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>SELECT e.Location_ID,
-       AVG(s.Density) AS average_density
+       AVG(s.Density) AS avg_density
 FROM tbl_Seedlings s
 JOIN tlu_PlantSpecies p ON p.SpeciesCode = s.SpCode
 JOIN tbl_Events e ON e.Event_ID = s.Event_ID
@@ -7728,11 +7858,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7772,11 +7902,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7813,7 +7943,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7847,20 +7977,27 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SELECT o.TreeCond, COUNT(*) AS NumTrees
-FROM tbl_Overstory AS o
-JOIN tbl_Tree_Tags AS t ON o.TreeTag = t.Tree_Tag_ID
-WHERE t.Tag &gt; 220
-GROUP BY o.TreeCond;</t>
+          <t>SELECT
+    o.TreeCond,
+    COUNT(*) AS NumTrees
+FROM
+    tbl_Overstory AS o
+JOIN
+    tbl_Tree_Tags AS t
+    ON o.TreeTag = t.Tree_Tag_ID
+WHERE
+    t.Tag &gt; 220
+GROUP BY
+    o.TreeCond;</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7890,8 +8027,8 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SELECT 
-    t.TreeCond_Text AS ConditionDescription,
+          <t>SELECT
+    t.TreeCond_Text AS TreeConditionDescription,
     COUNT(o.TreeCond) AS OverstoryCount
 FROM tlu_Tree_Cond t
 LEFT JOIN tbl_Overstory o
@@ -7902,11 +8039,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -7934,21 +8071,29 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH
+FROM tbl_WitnessTrees
+WHERE Location_ID &lt;&gt; 4
+ORDER BY Witness_stake DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-1</v>
+        <v>462</v>
       </c>
       <c r="H175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7971,19 +8116,20 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS codominant_overstory_count
+          <t>SELECT COUNT(*) AS OverstoryCount
 FROM tbl_Overstory AS o
-JOIN tlu_Can_Pos AS c ON o.CanPos = c.CanPos_Num
+JOIN tlu_Can_Pos AS c
+  ON o.CanPos = c.CanPos_Num
 WHERE c.CanPos_Name = 'codominant';</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
@@ -8013,25 +8159,26 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SELECT cp.CanPos_Name,
-       COUNT(*) AS OverstoryCount
-FROM tbl_Overstory AS o
-JOIN tlu_PlantSpecies AS s
-  ON o.SpCode = s.SpeciesCode
-JOIN tlu_Can_Pos AS cp
-  ON o.CanPos = cp.CanPos_Num
-WHERE s.CommonName = 'Red Maple'
+          <t>SELECT
+    cp.CanPos_Name,
+    COUNT(ps.SpeciesCode) AS OverstoryCount
+FROM tlu_Can_Pos AS cp
+LEFT JOIN tbl_Overstory AS o
+    ON o.CanPos = cp.CanPos_Num
+LEFT JOIN tlu_PlantSpecies AS ps
+    ON o.SpCode = ps.SpeciesCode
+    AND ps.CommonName = 'Red Maple'
 GROUP BY cp.CanPos_Name
 ORDER BY cp.CanPos_Name;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>595</v>
+        <v>1033</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -8061,24 +8208,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SELECT l.SiteDescription,
-       l.Slope,
-       l.Aspect,
-       l.Slope_shape,
-       l.Elevation
+          <t>SELECT 
+    l.SiteDescription,
+    l.Slope,
+    l.Aspect,
+    l.Slope_shape,
+    l.Elevation
 FROM tbl_Locations AS l
 JOIN tlu_topo_position AS t
-  ON l.Topo_Position = t.ID
+    ON l.Topo_Position = t.ID
 WHERE t.TopoPosition = 'Midslope';</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
@@ -8116,7 +8264,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -8152,7 +8300,7 @@
         <is>
           <t>SELECT 
     d.DecayStage_Descr,
-    COUNT(t.Decay) AS observation_count
+    COUNT(t.Decay) AS ObservationCount
 FROM tlu_DecayStage AS d
 LEFT JOIN tbl_Deadwood AS t
     ON t.Decay = d.DecayStage_ID
@@ -8162,7 +8310,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -8202,11 +8350,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -8236,26 +8384,26 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SELECT d.Length, d.MPD
-FROM tbl_Deadwood AS d
-JOIN tlu_DecayStage AS ds ON d.Decay = ds.DecayStage_ID
-WHERE ds.DecayStage_Descr LIKE '%log is flat%';</t>
+          <t>SELECT dw.Length, dw.MPD
+FROM tbl_Deadwood dw
+JOIN tlu_DecayStage ds ON dw.Decay = ds.DecayStage_ID
+WHERE ds.DecayStage_Descr = 'log is flat';</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -8287,11 +8435,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -8319,21 +8467,36 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT
+    genus,
+    COUNT(*) AS species_count
+FROM
+    tlu_PlantSpecies
+WHERE
+    SpeciesNotes LIKE '%native%'
+GROUP BY
+    genus
+ORDER BY
+    species_count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>408</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8368,18 +8531,18 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8408,11 +8571,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
@@ -8443,7 +8606,7 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>SELECT e.Location_ID,
-       AVG(s.Density) AS Avg_Density
+       AVG(s.Density) AS average_density
 FROM tbl_Events e
 JOIN tbl_Seedlings s ON e.Event_ID = s.Event_ID
 WHERE strftime('%Y', e.Event_Date) = '1999'
@@ -8452,18 +8615,18 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8486,40 +8649,33 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>WITH fraseri_code AS (
-    SELECT SpeciesCode
-    FROM tlu_PlantSpecies
-    WHERE species = 'fraseri'
-)
-SELECT strftime('%Y-%m', e.Event_Date) AS month,
-       AVG(o.DBH) AS avg_diameter
-FROM tbl_Overstory o
-JOIN tbl_Events e ON o.Event_ID = e.Event_ID
-JOIN fraseri_code fc ON o.SpCode = fc.SpeciesCode
-WHERE o.Event_ID IN (
-    SELECT Event_ID
-    FROM tbl_Overstory
-    GROUP BY Event_ID
-    HAVING COUNT(*) = 1
-)
-GROUP BY month
+          <t>SELECT 
+    strftime('%Y-%m', e.Event_Date) AS month,
+    AVG(o.DBH) AS avg_diameter
+FROM tbl_Overstory AS o
+JOIN tbl_Events AS e
+    ON o.Event_ID = e.Event_ID
+JOIN tlu_PlantSpecies AS p
+    ON o.SpCode = p.SpeciesCode
+WHERE p.species = 'fraseri'
+GROUP BY strftime('%Y-%m', e.Event_Date)
 ORDER BY month;</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>822</v>
+        <v>692</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -8542,18 +8698,20 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SELECT Layer, COUNT(*) AS count
+          <t>SELECT
+    Layer,
+    COUNT(*) AS road_trail_count
 FROM tlu_Roads_and_Trails
 GROUP BY Layer;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -8596,7 +8754,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -8637,11 +8795,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -8669,21 +8827,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN
+FROM tlu_PlaceNames
+ORDER BY utmN DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>338</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8872,7 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>SELECT p.Pres_Text,
-       COUNT(*) AS nested_subplots
+       COUNT(*) AS nest_count
 FROM tbl_Nests n
 JOIN tlu_Presence p ON n.Presence_First = p.Pres_Num
 WHERE n.Event_ID = 30
@@ -8716,11 +8881,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8758,11 +8923,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H194" t="b">
         <v>1</v>
@@ -8790,21 +8955,31 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT p.genus,
+       p.species,
+       p.CommonName
+FROM tlu_PlantSpecies AS p
+JOIN tbl_Seedlings AS s
+  ON p.SpeciesCode = s.SpCode
+WHERE s.Density = (SELECT MAX(Density) FROM tbl_Seedlings);</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>436</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8825,21 +9000,30 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT strftime('%m', e.Event_Date) AS month
+FROM tbl_Seedlings s
+JOIN tbl_Events e ON s.Event_ID = e.Event_ID
+GROUP BY month
+ORDER BY AVG(s.Density) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>447</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8864,21 +9048,20 @@
         <is>
           <t>SELECT p.CommonName,
        COUNT(*) AS Count
-FROM tbl_Tree_Tags AS t
-JOIN tlu_PlantSpecies AS p
+FROM tbl_Tree_Tags t
+JOIN tlu_PlantSpecies p
   ON t.SpCode = p.SpeciesCode
 WHERE t.Location_ID = 2
-GROUP BY p.CommonName
-ORDER BY p.CommonName;</t>
+GROUP BY p.CommonName;</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8909,24 +9092,24 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>SELECT 
-    p.genus,
-    p.CommonName,
+    ps.genus,
+    ps.CommonName,
     COUNT(*) AS count
-FROM tbl_Tree_Tags AS t
-JOIN tbl_Locations AS l ON t.Location_ID = l.Location_ID
-JOIN tlu_PlantSpecies AS p ON t.SpCode = p.SpeciesCode
+FROM tbl_Tree_Tags tt
+JOIN tbl_Locations l ON tt.Location_ID = l.Location_ID
+JOIN tlu_PlantSpecies ps ON tt.SpCode = ps.SpeciesCode
 WHERE l.Elevation &gt; 4000
-GROUP BY p.genus, p.CommonName
-ORDER BY p.genus, p.CommonName;</t>
+GROUP BY ps.genus, ps.CommonName
+ORDER BY ps.genus, ps.CommonName;</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8963,7 +9146,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -9004,7 +9187,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -9038,18 +9221,19 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT d.Event_ID) AS event_count
-FROM tbl_Deadwood d
-JOIN tbl_Overstory o ON d.Event_ID = o.Event_ID;</t>
+          <t>SELECT COUNT(DISTINCT o.Event_ID) AS event_count
+FROM tbl_Overstory AS o
+INNER JOIN tbl_Deadwood AS d
+    ON o.Event_ID = d.Event_ID;</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -9085,7 +9269,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -9125,7 +9309,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -9159,17 +9343,17 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SELECT MIN(CRASHYEAR) AS min_year, MAX(CRASHYEAR) AS max_year
+          <t>SELECT MIN(CRASHYEAR) AS start_year, MAX(CRASHYEAR) AS end_year
 FROM CRASH;</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -9205,11 +9389,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -9245,11 +9429,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>418</v>
+        <v>508</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -9286,7 +9470,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -9326,11 +9510,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -9362,18 +9546,18 @@
         <is>
           <t>SELECT
     CATEGORY,
-    AVG(JKWGT5) AS average_weight
+    AVG(JKWGT5) AS avg_jkwgt5
 FROM JKWGT
 GROUP BY CATEGORY;</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -9411,11 +9595,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -9458,11 +9642,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -9499,11 +9683,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -9540,11 +9724,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -9575,18 +9759,18 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>SELECT COUNT(*) 
-FROM GV
-WHERE PARDRUG = 1
+FROM GV 
+WHERE PARDRUG = 1 
   AND TOWED = 3;</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="H214" t="b">
         <v>1</v>
@@ -9623,11 +9807,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -9661,31 +9845,24 @@
     g.CASEID,
     g.VEHNO,
     g.SPEEDLIMIT,
-    e.max_speed,
-    e.max_speed - g.SPEEDLIMIT AS speed_difference
+    MAX(e.PVALUE) AS MAX_SPEED,
+    MAX(e.PVALUE) - g.SPEEDLIMIT AS SPEED_DIFF
 FROM GV AS g
-JOIN (
-    SELECT 
-        CASEID,
-        VEHNO,
-        MAX(PVALUE) AS max_speed
-    FROM EDRPRECRASH
-    WHERE PCODE = 1010
-    GROUP BY CASEID, VEHNO
-) AS e
-ON g.CASEID = e.CASEID
-AND g.VEHNO = e.VEHNO
+JOIN EDRPRECRASH AS e
+    ON g.CASEID = e.CASEID
+   AND g.VEHNO = e.VEHNO
 WHERE g.SPEEDLIMIT &lt; 300
-  AND e.max_speed &lt; 300;</t>
+GROUP BY g.CASEID, g.VEHNO, g.SPEEDLIMIT
+HAVING MAX(e.PVALUE) &lt; 300;</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -9722,11 +9899,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -9763,11 +9940,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -9797,7 +9974,8 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SELECT INTMAG, COUNT(*) AS vehicle_count
+          <t>SELECT INTMAG,
+       COUNT(DISTINCT VEHNO) AS vehicle_count
 FROM INTRUSION
 GROUP BY INTMAG
 ORDER BY INTMAG;</t>
@@ -9805,11 +9983,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
@@ -9847,7 +10025,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9888,11 +10066,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -9929,7 +10107,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -9963,21 +10141,18 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SELECT
-    REGION,
-    COUNT(*) AS injury_count
+          <t>SELECT REGION, COUNT(*) AS injury_count
 FROM INJURY
-GROUP BY REGION
-ORDER BY REGION;</t>
+GROUP BY REGION;</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -10015,11 +10190,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
@@ -10056,11 +10231,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="H225" t="b">
         <v>1</v>
@@ -10100,11 +10275,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H226" t="b">
         <v>1</v>
@@ -10143,7 +10318,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -10180,25 +10355,21 @@
           <t>SELECT
     v.Make,
     COUNT(*) AS minor_injury_count
-FROM
-    INJURY i
-JOIN
-    VPICDECODE v
+FROM INJURY i
+JOIN VPICDECODE v
     ON i.CASEID = v.CASEID
-    AND i.VEHNO = v.VEHNO
-WHERE
-    i.AIS = 1
-GROUP BY
-    v.Make;</t>
+   AND i.VEHNO = v.VEHNO
+WHERE i.AIS = 1
+GROUP BY v.Make;</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -10226,21 +10397,33 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT v.Make
+FROM INJURY i
+JOIN VPICDECODE v
+  ON i.CASEID = v.CASEID
+ AND i.VEHNO = v.VEHNO
+WHERE i.REGION = 'Neck'
+GROUP BY v.Make
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>704</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10263,18 +10446,18 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SELECT AVG(NOTIFIED) AS average_notification_time
+          <t>SELECT AVG(NOTIFIED) AS average_notified_time
 FROM EMSCARE
 WHERE NOTIFIED &lt;= 1000;</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -10311,11 +10494,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -10345,18 +10528,18 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SELECT AVG(SCENEDEP) AS average_total_time
+          <t>SELECT AVG(SCENEDEP) AS avg_total_time
 FROM EMSCARE
 WHERE SCENEDEP &lt;= 1600;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -10393,11 +10576,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -10427,22 +10610,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SELECT CASEID,
-       NOTIFIED,
-       SCENEARR,
-       SCENEDEP,
-       ARRMEDICAL
+          <t>SELECT
+    CASEID,
+    NOTIFIED,
+    SCENEARR,
+    SCENEDEP,
+    ARRMEDICAL
 FROM EMSCARE
 WHERE EMSTYPE = 1;</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>628</v>
+        <v>749</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -10479,7 +10663,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10521,7 +10705,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -10553,21 +10737,29 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make
+FROM VPICDECODE
+GROUP BY Make
+ORDER BY AVG(ModelYear) ASC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>396</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10590,18 +10782,18 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS vehicle_count
+          <t>SELECT COUNT(*) AS vehicles_without_driver
 FROM GV
 WHERE DRPRESENT = 0;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10638,11 +10830,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10679,7 +10871,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -10719,11 +10911,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H241" t="b">
         <v>1</v>
@@ -10753,18 +10945,18 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SELECT CDCPLANE, COUNT(*) AS vehicle_count
+          <t>SELECT CDCPLANE AS plane_of_impact, COUNT(*) AS vehicle_count
 FROM CDC
 GROUP BY CDCPLANE;</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -10794,25 +10986,25 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT CASEID) AS accident_count
-FROM INTERIOR
+          <t>SELECT COUNT(*) 
+FROM INTERIOR 
 WHERE GLAZINGCONT = 1;</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="H243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10833,21 +11025,30 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1
+FROM TIREPLAC
+WHERE RECFRONT1 &lt;&gt; '9999999999'
+GROUP BY RECFRONT1
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>457</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10877,11 +11078,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -10918,11 +11119,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="H246" t="b">
         <v>0</v>
@@ -10953,17 +11154,17 @@
       <c r="E247" t="inlineStr">
         <is>
           <t>SELECT COUNT(*) 
-FROM ADAPT 
-WHERE after_marked_adaptive_driving_equipment = 'Y';</t>
+FROM ADAPT
+WHERE after_marked_adaptive_driving_equipment = 1;</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="H247" t="b">
         <v>0</v>
@@ -10991,21 +11192,26 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT MAX(PVALUE) AS highest_roll_angle
+FROM EDRPOSTCRASH;</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>421</v>
       </c>
       <c r="H248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11036,11 +11242,11 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H249" t="b">
         <v>1</v>
@@ -11076,27 +11282,29 @@
 FROM
     EDRPRECRASH
 WHERE
-    PCODE = 1010
+    CASEID IN (
+        SELECT CASEID
+        FROM EDRPRECRASH
+        WHERE PVALUE &gt; 100 AND PVALUE &lt;= 200
+    )
 GROUP BY
-    CASEID
-HAVING
-    SUM(CASE WHEN PVALUE &gt; 100 AND PVALUE &lt;= 200 THEN 1 ELSE 0 END) &gt; 0;</t>
+    CASEID;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>749</v>
+        <v>551</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -11119,39 +11327,33 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>WITH filtered AS (
-    SELECT CASEID, VEHNO, PVALUE
+          <t>WITH max_speed AS (
+    SELECT CASEID, MAX(PVALUE) AS max_speed
     FROM EDRPRECRASH
-    WHERE PCODE = 1010
-      AND PVALUE &gt; 160
-      AND PVALUE &lt;= 300
-),
-max_speed AS (
-    SELECT CASEID, MAX(PVALUE) AS max_speed
-    FROM filtered
+    WHERE PVALUE &gt; 160 AND PVALUE &lt;= 300
     GROUP BY CASEID
 )
-SELECT f.CASEID,
+SELECT ms.CASEID,
        v.Make,
        v.Model,
-       m.max_speed AS Speed
-FROM max_speed m
-JOIN filtered f
-  ON f.CASEID = m.CASEID
- AND f.PVALUE = m.max_speed
+       ms.max_speed AS Speed
+FROM max_speed ms
+JOIN EDRPRECRASH e
+  ON e.CASEID = ms.CASEID
+ AND e.PVALUE = ms.max_speed
 JOIN VPICDECODE v
-  ON v.CASEID = f.CASEID
- AND v.VEHNO = f.VEHNO
-ORDER BY m.max_speed DESC;</t>
+  ON v.CASEID = e.CASEID
+ AND v.VEHNO = e.VEHNO
+ORDER BY ms.max_speed DESC;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1025</v>
+        <v>905</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -11187,7 +11389,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -11227,11 +11429,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -11261,18 +11463,18 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SELECT BRI, COUNT(*) AS injury_count
+          <t>SELECT BRI AS body_region, COUNT(*) AS injury_count
 FROM ICS
 GROUP BY BRI;</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H254" t="b">
         <v>1</v>
@@ -11309,7 +11511,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -11355,7 +11557,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -11389,18 +11591,18 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS fetal_death_crashes
+          <t>SELECT COUNT(*) AS fetal_death_crash_count
 FROM OCC
 WHERE FETALMORT = 1;</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H257" t="b">
         <v>1</v>
@@ -11430,18 +11632,18 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS crash_count
+          <t>SELECT COUNT(DISTINCT CASEID) AS crash_count
 FROM OCC
 WHERE BELTAVAIL = 1;</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="H258" t="b">
         <v>1</v>
@@ -11478,11 +11680,11 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -11520,11 +11722,11 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -11562,7 +11764,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -11597,8 +11799,8 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>SELECT
-    BELTUSE,
-    COUNT(*) AS total_occupant_count,
+    BELTUSE AS belt_use_category,
+    COUNT(*) AS total_occupants,
     SUM(CASE WHEN MORTALITY = 1 THEN 1 ELSE 0 END) AS mortality_count
 FROM OCC
 GROUP BY BELTUSE;</t>
@@ -11606,11 +11808,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -11640,18 +11842,18 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) AS vehicle_count
-FROM CDC
+          <t>SELECT COUNT(*) 
+FROM CDC 
 WHERE PDOF BETWEEN 150 AND 210;</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="H263" t="b">
         <v>0</v>
@@ -11681,25 +11883,25 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) 
-FROM CDC 
+          <t>SELECT COUNT(DISTINCT CASEID) AS crash_count
+FROM CDC
 WHERE HEADINGANG BETWEEN 0 AND 90;</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="H264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11720,21 +11922,27 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) AS max_depth
+FROM CDC
+WHERE CMAX NOT IN (888, 999);</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>603</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11757,18 +11965,18 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) AS vehicles_with_a_pillar_damage
+          <t>SELECT COUNT(DISTINCT VEHNO) AS vehicle_count
 FROM CDC
-WHERE DAMAPILLAR = 1;</t>
+WHERE DAMAPILLAR &lt;&gt; 0;</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -11798,18 +12006,18 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) AS vehicle_count
-FROM CDC
-WHERE DAMOTHPILLAR = 1;</t>
+          <t>SELECT COUNT(*) 
+FROM CDC 
+WHERE DAMOTHPILLAR NOT IN ('A', 'B', 'C');</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11847,11 +12055,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -11879,21 +12087,27 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVBARRIER) AS highest_speed_difference
+FROM CDC
+WHERE DVBARRIER &lt;&gt; 999;</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>481</v>
       </c>
       <c r="H269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11916,7 +12130,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SELECT
+          <t>SELECT 
     CASEID,
     VEHNO,
     C1,
@@ -11927,22 +12141,22 @@
     C6,
     CMAX
 FROM CDC
-WHERE CMAX NOT IN (888, 999)
-   OR C1 NOT IN (888, 999)
-   OR C2 NOT IN (888, 999)
-   OR C3 NOT IN (888, 999)
-   OR C4 NOT IN (888, 999)
-   OR C5 NOT IN (888, 999)
-   OR C6 NOT IN (888, 999);</t>
+WHERE 
+    C1 NOT IN (888, 999) OR
+    C2 NOT IN (888, 999) OR
+    C3 NOT IN (888, 999) OR
+    C4 NOT IN (888, 999) OR
+    C5 NOT IN (888, 999) OR
+    C6 NOT IN (888, 999);</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>812</v>
+        <v>895</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -11980,11 +12194,11 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="H271" t="b">
         <v>1</v>
@@ -12015,9 +12229,9 @@
       <c r="E272" t="inlineStr">
         <is>
           <t>SELECT 
-    e.CASEID,
-    e.EDREVENTNO,
-    COUNT(p.CASEID) AS datapoint_count
+    e.CASEID AS case_number,
+    e.EDREVENTNO AS event_number,
+    COUNT(p.CASEID) AS precrash_datapoint_count
 FROM EDREVENT e
 LEFT JOIN EDRPRECRASH p
     ON e.CASEID = p.CASEID
@@ -12027,11 +12241,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -12061,25 +12275,30 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SELECT v.Make,
-       v.Model,
-       v.ModelYear,
-       e.IGCYCRASH
-FROM   VPICDECODE v
-JOIN   EDREVENT e
-       ON v.CASEID = e.CASEID
-      AND v.VEHNO = e.VEHNO
-WHERE  e.IGCYCRASH &lt; 200
-ORDER BY v.ModelYear DESC;</t>
+          <t>SELECT
+    v.Make,
+    v.Model,
+    v.ModelYear,
+    e.IGCYCRASH
+FROM
+    VPICDECODE v
+JOIN
+    EDREVENT e
+    ON v.CASEID = e.CASEID
+    AND v.VEHNO = e.VEHNO
+WHERE
+    e.IGCYCRASH &lt; 200
+ORDER BY
+    v.ModelYear DESC;</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -12109,18 +12328,19 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS vehicle_count
-FROM EDREVENT
-WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400;</t>
+          <t>SELECT COUNT(*) 
+FROM EDREVENT 
+WHERE IGCYCRASH &gt; 0 
+  AND IGCYCRASH &lt; 400;</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -12162,7 +12382,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -12196,26 +12416,21 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SELECT
-    FUEL.FUELTYPE,
-    COUNT(*) AS fire_count
-FROM
-    FIRE
-JOIN
-    FUEL
-    ON FIRE.CASEID = FUEL.CASEID
-    AND FIRE.VEHNO = FUEL.VEHNO
-GROUP BY
-    FUEL.FUELTYPE;</t>
+          <t>SELECT f.FUELTYPE, COUNT(*) AS fire_count
+FROM FIRE AS fr
+JOIN FUEL AS f
+  ON fr.CASEID = f.CASEID
+ AND fr.VEHNO = f.VEHNO
+GROUP BY f.FUELTYPE;</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H276" t="b">
         <v>1</v>
@@ -12245,23 +12460,21 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>SELECT o.SEX,
-       COUNT(*) AS ejection_count
-FROM OCC o
-JOIN EJECT e
-  ON o.CASEID = e.CASEID
- AND o.VEHNO = e.VEHNO
- AND o.OCCNO = e.OCCNO
-GROUP BY o.SEX;</t>
+          <t>SELECT
+    OCC.SEX,
+    COUNT(*) AS ejection_count
+FROM OCC
+JOIN EJECT USING (CASEID, VEHNO, OCCNO)
+GROUP BY OCC.SEX;</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="H277" t="b">
         <v>0</v>
@@ -12299,7 +12512,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -12340,11 +12553,11 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H279" t="b">
         <v>1</v>
@@ -12372,21 +12585,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT EQUIP
+FROM AVOID
+ORDER BY AVAIL DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>374</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -12420,11 +12640,11 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -12460,11 +12680,11 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -12501,7 +12721,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -12542,11 +12762,11 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H284" t="b">
         <v>1</v>
@@ -12585,7 +12805,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -12630,7 +12850,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12664,19 +12884,24 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SELECT t.RECFRONT1, t.RECREAR1
+          <t>SELECT
+    t.RECFRONT1 AS FrontTireSize,
+    t.RECREAR1 AS RearTireSize
 FROM TIREPLAC t
-JOIN VPICDECODE v ON t.CASEID = v.CASEID AND t.VEHNO = v.VEHNO
-WHERE v.Make = 'Subaru' AND v.Model = 'WRX';</t>
+JOIN VPICDECODE v
+    ON t.CASEID = v.CASEID
+   AND t.VEHNO = v.VEHNO
+WHERE v.Make = 'Subaru'
+  AND v.Model = 'WRX';</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -12712,7 +12937,8 @@
        t.RECRRPRESS1
 FROM TIREPLAC t
 JOIN VPICDECODE v
-  ON t.CASEID = v.CASEID AND t.VEHNO = v.VEHNO
+  ON t.CASEID = v.CASEID
+ AND t.VEHNO = v.VEHNO
 WHERE v.Make = 'Honda'
   AND v.Model = 'Civic'
   AND v.ModelYear &lt; 2012;</t>
@@ -12720,11 +12946,11 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
@@ -12761,11 +12987,11 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H289" t="b">
         <v>0</v>
@@ -12806,7 +13032,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -12843,21 +13069,18 @@
           <t>SELECT
     TIREMODEL,
     COUNT(DISTINCT VEHNO) AS vehicle_count
-FROM
-    TIRE
-GROUP BY
-    TIREMODEL
-ORDER BY
-    vehicle_count DESC;</t>
+FROM TIRE
+GROUP BY TIREMODEL
+ORDER BY vehicle_count DESC;</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="H291" t="b">
         <v>0</v>
@@ -12887,30 +13110,32 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>SELECT
+          <t>SELECT 
     t.TIREMODEL,
     COUNT(DISTINCT t.VEHNO) AS vehicle_count
-FROM
+FROM 
     TIRE t
-JOIN
-    TIREDAMAGE d
-    ON t.CASEID = d.CASEID
-    AND t.VEHNO = d.VEHNO
-WHERE
-    d.DAMAGE NOT IN (0, 9)
-GROUP BY
+WHERE 
+    EXISTS (
+        SELECT 1 
+        FROM TIREDAMAGE d
+        WHERE d.CASEID = t.CASEID
+          AND d.VEHNO = t.VEHNO
+          AND d.DAMAGE NOT IN (0, 9)
+    )
+GROUP BY 
     t.TIREMODEL
-ORDER BY
+ORDER BY 
     vehicle_count DESC;</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>731</v>
+        <v>627</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -12954,11 +13179,11 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -12988,28 +13213,30 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SELECT
+          <t>SELECT 
     t.CASEID,
     v.Make,
     v.Model,
-    p.RECFRONT1 AS RecommendedSize,
-    t.TIRESIZE AS ActualSize
+    p.RECFRONT1 AS recommended_size,
+    t.TIRESIZE AS actual_size
 FROM TIRE t
-JOIN TIREPLAC p
-    ON t.CASEID = p.CASEID AND t.VEHNO = p.VEHNO
-JOIN VPICDECODE v
-    ON t.CASEID = v.CASEID AND t.VEHNO = v.VEHNO
+JOIN TIREPLAC p 
+    ON t.CASEID = p.CASEID 
+   AND t.VEHNO = p.VEHNO
+JOIN VPICDECODE v 
+    ON t.CASEID = v.CASEID 
+   AND t.VEHNO = v.VEHNO
 WHERE t.TIRELOC = 'LEFT FRONT'
   AND t.TIRESIZE &lt;&gt; p.RECFRONT1;</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -13037,21 +13264,33 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT vp.Make
+FROM TIRE t
+JOIN TIREPLAC tp ON t.CASEID = tp.CASEID AND t.VEHNO = tp.VEHNO
+JOIN VPICDECODE vp ON t.CASEID = vp.CASEID AND t.VEHNO = vp.VEHNO
+WHERE t.TIRELOC = 'FL'               -- front left tire location
+  AND t.TIRESIZE &lt;&gt; tp.RECFRONT1      -- mismatched size
+GROUP BY vp.Make
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>620</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -13080,7 +13319,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -13122,7 +13361,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
@@ -13156,30 +13395,24 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>SELECT
-    v.Make,
-    v.Model,
-    COUNT(DISTINCT cs.VEHNO) AS vehicle_count
-FROM
-    CHILDSEAT cs
-JOIN
-    VPICDECODE v
-    ON cs.CASEID = v.CASEID
-    AND cs.VEHNO = v.VEHNO
-GROUP BY
-    v.Make,
-    v.Model
-ORDER BY
-    vehicle_count DESC;</t>
+          <t>SELECT v.Make,
+       v.Model,
+       COUNT(DISTINCT c.VEHNO) AS vehicle_count
+FROM CHILDSEAT c
+JOIN VPICDECODE v
+  ON c.CASEID = v.CASEID
+ AND c.VEHNO = v.VEHNO
+GROUP BY v.Make, v.Model
+ORDER BY vehicle_count DESC;</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -13212,25 +13445,23 @@
           <t>SELECT 
     v.Make,
     v.Model,
-    COUNT(DISTINCT c.VEHNO) AS child_seat_count,
-    COUNT(DISTINCT CASE WHEN d.DISTRACTN = 1 THEN c.VEHNO END) AS distracted_count
+    COUNT(DISTINCT c.CASEID || '-' || c.VEHNO) AS child_seat_count,
+    COUNT(DISTINCT CASE WHEN d.DISTRACTN IS NOT NULL THEN c.CASEID || '-' || c.VEHNO END) AS distracted_count
 FROM CHILDSEAT c
 JOIN VPICDECODE v
-    ON c.CASEID = v.CASEID
-   AND c.VEHNO = v.VEHNO
+    ON c.CASEID = v.CASEID AND c.VEHNO = v.VEHNO
 LEFT JOIN DISTRACT d
-    ON c.CASEID = d.CASEID
-   AND c.VEHNO = d.VEHNO
+    ON c.CASEID = d.CASEID AND c.VEHNO = d.VEHNO
 GROUP BY v.Make, v.Model;</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1010</v>
+        <v>847</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -13271,11 +13502,11 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -13307,15 +13538,11 @@
         <is>
           <t>SELECT
     v.Make,
-    COUNT(DISTINCT v.CASEID) AS total_crashes,
-    COUNT(DISTINCT CASE WHEN f.FIRE = 1 THEN v.CASEID END) AS fire_crashes,
-    ROUND(
-        COUNT(DISTINCT CASE WHEN f.FIRE = 1 THEN v.CASEID END) * 1.0
-        / COUNT(DISTINCT v.CASEID),
-        4
-    ) AS fire_proportion
+    COUNT(*) AS total_crashes,
+    SUM(f.FIRE) AS fire_crashes,
+    CAST(SUM(f.FIRE) AS REAL) / COUNT(*) AS fire_proportion
 FROM VPICDECODE v
-LEFT JOIN FIRE f
+JOIN FIRE f
     ON v.CASEID = f.CASEID
    AND v.VEHNO = f.VEHNO
 GROUP BY v.Make
@@ -13324,18 +13551,18 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>980</v>
+        <v>670</v>
       </c>
       <c r="H301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -13361,19 +13588,19 @@
           <t>SELECT INSTITUTION_ID,
        ENTITY_NAME,
        LEVEL
-FROM   Accountability_Levels
-WHERE  INDICATOR = 'HS Grad Rate'
-  AND  SUBGROUP_NAME = 'Multiracial'
-  AND  ENTITY_NAME LIKE '%friendship%' COLLATE NOCASE;</t>
+FROM Accountability_Levels
+WHERE INDICATOR = 'HS Grad Rate'
+  AND SUBGROUP_NAME = 'Multiracial'
+  AND ENTITY_NAME LIKE '%friendship%';</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H302" t="b">
         <v>1</v>
@@ -13412,11 +13639,11 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H303" t="b">
         <v>1</v>
@@ -13453,7 +13680,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -13487,10 +13714,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>SELECT 
-    PUPIL_COUNT_TOT AS student_count,
-    FEDERAL_EXP AS federal_expenditure,
-    PER_FEDERAL_EXP AS federal_expenditure_per_student
+          <t>SELECT PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP
 FROM Expenditures_per_Pupil
 WHERE ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'
   AND YEAR = 2022;</t>
@@ -13498,11 +13722,11 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H305" t="b">
         <v>1</v>
@@ -13538,23 +13762,22 @@
     e.PER_FEDERAL_EXP,
     a.SUBGROUP_NAME,
     a.MEAN_SCORE
-FROM Expenditures_per_Pupil e
-JOIN Annual_EM_MATH a
-    ON e.ENTITY_CD = a.ENTITY_CD
-   AND e.YEAR = a.YEAR
-WHERE e.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'
-  AND a.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'
+FROM Annual_EM_MATH AS a
+JOIN Expenditures_per_Pupil AS e
+    ON a.ENTITY_CD = e.ENTITY_CD
+    AND a.YEAR = e.YEAR
+WHERE a.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'
   AND a.ASSESSMENT_NAME = 'MATH5'
   AND a.YEAR = 2022;</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="H306" t="b">
         <v>1</v>
@@ -13604,7 +13827,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -13647,11 +13870,11 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -13690,18 +13913,19 @@
     PER_LEVEL4,
     PER_LEVEL5
 FROM Annual_Regents_Exams
-WHERE ENTITY_NAME = 'LONGWOOD HIGH SCHOOL'
-  AND YEAR = 2022
-  AND SUBJECT = 'Regents Common Core Algebra I';</t>
+WHERE 
+    ENTITY_NAME = 'LONGWOOD HIGH SCHOOL' 
+    AND YEAR = 2022 
+    AND SUBJECT = 'Regents Common Core Algebra I';</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="H309" t="b">
         <v>1</v>
@@ -13733,26 +13957,26 @@
         <is>
           <t>SELECT 
     a.OVERALL_STATUS,
-    COUNT(*) AS entity_count
+    COUNT(DISTINCT a.ENTITY_CD) AS entity_count
 FROM 
     Accountability_Status a
 JOIN 
     Institution_Grouping i
     ON a.ENTITY_CD = i.ENTITY_CD
 WHERE 
-    i.GROUP_NAME = 'public school'
-    AND a.YEAR = '2022'
+    a.YEAR = '2022'
+    AND i.GROUP_NAME = 'Public'
 GROUP BY 
     a.OVERALL_STATUS;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -13790,11 +14014,11 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -13832,11 +14056,11 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="H312" t="b">
         <v>0</v>
@@ -13866,25 +14090,24 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SELECT ig.ENTITY_CD, ig.ENTITY_NAME
+          <t>SELECT DISTINCT ig.ENTITY_CD, ig.ENTITY_NAME
 FROM Institution_Grouping ig
-WHERE ig.GROUP_NAME = 'public school'
-  AND ig.ENTITY_NAME LIKE '%Elementary%'
+WHERE ig.GROUP_NAME = 'Public Elementary Schools'
   AND NOT EXISTS (
     SELECT 1
     FROM ACC_EM_Core_and_Weighted_Performance p
     WHERE p.ENTITY_CD = ig.ENTITY_CD
       AND p.SUBGROUP_NAME = 'students with disabilities'
-  );</t>
+);</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -13918,17 +14141,17 @@
 FROM ACC_EM_Core_and_Weighted_Performance AS a
 JOIN Institution_Grouping AS i
   ON a.ENTITY_CD = i.ENTITY_CD
-WHERE a.SUBGROUP_NAME = 'multiracial'
-  AND i.GROUP_NAME = 'public school';</t>
+WHERE i.GROUP_NAME = 'Public Elementary School'
+  AND a.SUBGROUP_NAME = 'multiracial';</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>613</v>
+        <v>525</v>
       </c>
       <c r="H314" t="b">
         <v>1</v>
@@ -13960,18 +14183,18 @@
         <is>
           <t>SELECT ENTITY_NAME, ELL_COUNT
 FROM ACC_EM_ELP
-WHERE SUBGROUP_NAME = 'all students'
-  AND LOWER(ENTITY_NAME) LIKE '%preparatory%'
-  AND LOWER(ENTITY_NAME) LIKE '%public%';</t>
+WHERE LOWER(SUBGROUP_NAME) = 'all students'
+  AND LOWER(ENTITY_NAME) LIKE '%public%'
+  AND LOWER(ENTITY_NAME) LIKE '%preparatory%';</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H315" t="b">
         <v>0</v>
@@ -14005,18 +14228,18 @@
 FROM ACC_EM_ELP AS a
 JOIN Institution_Grouping AS i
   ON a.ENTITY_CD = i.ENTITY_CD
-WHERE i.GROUP_NAME = 'public school'
+WHERE i.GROUP_NAME = 'Public Elementary School'
   AND a.SUBGROUP_NAME = 'White'
   AND CAST(a.ELL_COUNT AS INTEGER) &gt; 0;</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="H316" t="b">
         <v>1</v>
@@ -14049,16 +14272,16 @@
           <t>SELECT ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO
 FROM ACC_EM_ELP
 WHERE ENTITY_NAME = 'pine bush'
-  AND SUBGROUP_NAME = 'all students';</t>
+  AND SUBGROUP_NAME = 'All Students';</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="H317" t="b">
         <v>0</v>
@@ -14088,21 +14311,21 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS public_elementary_zero_participation
-FROM ACC_EM_NYSESLAT_for_Participation a
-JOIN Institution_Grouping i
-  ON a.ENTITY_CD = i.ENTITY_CD
-WHERE i.GROUP_NAME = 'public school'
+          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS count_public_elem_schools
+FROM ACC_EM_NYSESLAT_for_Participation AS a
+JOIN Institution_Grouping AS ig
+  ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE ig.GROUP_NAME LIKE '%Public Elementary%'
   AND a.NYSESLAT_PART = 0;</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>706</v>
+        <v>570</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -14138,7 +14361,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -14174,31 +14397,28 @@
         <is>
           <t>SELECT DISTINCT e.ENTITY_NAME
 FROM ACC_EM_ELP e
-JOIN Institution_Grouping g
-  ON e.ENTITY_CD = g.ENTITY_CD
 JOIN ACC_EM_NYSESLAT_for_Participation p
   ON e.ENTITY_CD = p.ENTITY_CD
-WHERE g.GROUP_NAME = 'public school'
-  AND e.LEVEL = '2'
+WHERE e.LEVEL = '2'
   AND e.SUBGROUP_NAME = 'All Students'
-  AND CAST(e.ELL_COUNT AS REAL) &gt; 0
+  AND CAST(e.ELL_COUNT AS INTEGER) &gt; 0
   AND (p.NYSESLAT_PART = 0 OR p.NYSESLAT_PART IS NULL);</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1165</v>
+        <v>796</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14221,10 +14441,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SELECT SUBJECT,
-       SUBGROUP_NAME,
-       COHORT,
-       RATE
+          <t>SELECT 
+    SUBJECT,
+    SUBGROUP_NAME,
+    COHORT,
+    RATE
 FROM ACC_EM_Participation_Rate
 WHERE ENTITY_NAME = 'elmwood elementary school'
   AND YEAR = '2022';</t>
@@ -14232,11 +14453,11 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -14266,24 +14487,21 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS public_elementary_entities_met_95pct
-FROM ACC_EM_Participation_Rate a
-JOIN Institution_Grouping p
-  ON a.ENTITY_CD = p.ENTITY_CD
- AND p.GROUP_NAME = 'public school'
-JOIN Institution_Grouping e
-  ON a.ENTITY_CD = e.ENTITY_CD
- AND e.GROUP_NAME = 'elementary school'
-WHERE a.MET_95_PERCENT = 'Yes';</t>
+          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS public_elem_schools_met_95pct
+FROM ACC_EM_Participation_Rate AS a
+JOIN Institution_Grouping AS i
+  ON a.ENTITY_CD = i.ENTITY_CD
+WHERE i.GROUP_NAME LIKE '%Public Elementary%'
+  AND a.MET_95_PERCENT = 'Y';</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>876</v>
+        <v>628</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -14313,21 +14531,20 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SELECT AVG(CAST(p.RATE AS REAL)) AS avg_participation_rate
-FROM ACC_EM_Participation_Rate AS p
-JOIN Institution_Grouping AS g
-  ON p.ENTITY_CD = g.ENTITY_CD
-WHERE g.GROUP_NAME = 'public school'
-  AND p.RATE &lt;&gt; 's';</t>
+          <t>SELECT AVG(CAST(a.RATE AS REAL)) AS average_participation_rate
+FROM ACC_EM_Participation_Rate a
+JOIN Institution_Grouping i ON a.ENTITY_CD = i.ENTITY_CD
+WHERE i.GROUP_NAME = 'Public Elementary'
+  AND a.RATE &lt;&gt; 's';</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>662</v>
+        <v>561</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -14359,14 +14576,14 @@
         <is>
           <t>SELECT
     a.SUBJECT,
-    AVG(CAST(a.ABSENT_RATE AS FLOAT)) AS avg_absent_rate
+    AVG(CAST(a.ABSENT_RATE AS REAL)) AS avg_absent_rate
 FROM
     ACC_EM_Chronic_Absenteeism a
 JOIN
-    Institution_Grouping i
-    ON a.ENTITY_CD = i.ENTITY_CD
+    Institution_Grouping ig
+    ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE
-    i.GROUP_NAME = 'public school'
+    ig.GROUP_NAME = 'Public High School'
     AND a.ABSENT_RATE &lt;&gt; 's'
 GROUP BY
     a.SUBJECT;</t>
@@ -14374,11 +14591,11 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>633</v>
+        <v>698</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -14406,14 +14623,25 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME
+FROM ACC_EM_Chronic_Absenteeism
+WHERE SUBGROUP_NAME = 'Students with Disabilities'
+  AND ABSENT_RATE &lt;&gt; 's'
+  AND ENTITY_NAME LIKE '%Elementary%'
+  AND ENTITY_NAME LIKE '%Public%'
+ORDER BY CAST(ABSENT_RATE AS REAL) ASC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>-1</v>
+        <v>663</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
@@ -14450,34 +14678,26 @@
         a.ENROLLMENT,
         CAST(a.ABSENT_RATE AS REAL) AS absent_rate
     FROM ACC_EM_Chronic_Absenteeism a
-    JOIN Institution_Grouping i
-        ON a.ENTITY_CD = i.ENTITY_CD
-    WHERE 
-        i.GROUP_NAME = 'public school'
-        AND a.YEAR = '2022'
-        AND a.ABSENT_RATE &lt;&gt; 's'
-        AND a.SUBGROUP_NAME LIKE '%Elementary%'
-),
-max_rate AS (
-    SELECT MAX(absent_rate) AS max_absent_rate
-    FROM filtered
+    JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+    WHERE a.YEAR = '2022'
+      AND a.ABSENT_RATE &lt;&gt; 's'
+      AND ig.GROUP_NAME = 'Public Elementary'
 )
 SELECT 
-    f.ENTITY_NAME AS school_name,
-    f.SUBGROUP_NAME,
-    f.ENROLLMENT
-FROM filtered f
-JOIN max_rate m
-    ON f.absent_rate = m.max_absent_rate;</t>
+    ENTITY_NAME AS school_name,
+    SUBGROUP_NAME,
+    ENROLLMENT
+FROM filtered
+WHERE absent_rate = (SELECT MAX(absent_rate) FROM filtered);</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -14513,18 +14733,18 @@
 FROM ACC_HS_Chronic_Absenteeism a
 JOIN Institution_Grouping i
     ON a.ENTITY_CD = i.ENTITY_CD
-WHERE i.GROUP_NAME = 'public school'
+WHERE i.GROUP_NAME = 'Public High School'
   AND a.ABSENT_RATE &lt;&gt; 's'
 GROUP BY a.SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>646</v>
+        <v>776</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -14552,21 +14772,43 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>SELECT 
+    a.ENTITY_NAME,
+    a.ABSENT_COUNT,
+    a.ABSENT_RATE
+FROM ACC_HS_Chronic_Absenteeism a
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE a.YEAR = '2021'
+  AND a.SUBGROUP_NAME = 'All students'
+  AND a.ENROLLMENT != 's'
+  AND ig.GROUP_NAME = 'Public High School'
+  AND CAST(a.ENROLLMENT AS INTEGER) = (
+      SELECT MAX(CAST(a2.ENROLLMENT AS INTEGER))
+      FROM ACC_HS_Chronic_Absenteeism a2
+      JOIN Institution_Grouping ig2 ON a2.ENTITY_CD = ig2.ENTITY_CD
+      WHERE a2.YEAR = '2021'
+        AND a2.SUBGROUP_NAME = 'All students'
+        AND a2.ENROLLMENT != 's'
+        AND ig2.GROUP_NAME = 'Public High School'
+  );</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>-1</v>
+        <v>1084</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14602,11 +14844,11 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -14634,21 +14876,36 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>SELECT a.ENTITY_NAME
+FROM ACC_HS_Core_and_Weighted_Performance AS a
+JOIN Institution_Grouping AS ig
+  ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE a.YEAR = '2022'
+  AND a.SUBJECT = 'Math'
+  AND a.SUBGROUP_NAME = 'All Students'
+  AND a.WEIGHTED_INDEX &lt;&gt; 's'
+  AND ig.GROUP_NAME LIKE '%Public%'
+  AND a.ENTITY_NAME LIKE '%High School%'
+ORDER BY CAST(a.WEIGHTED_INDEX AS REAL) DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>-1</v>
+        <v>940</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14669,14 +14926,29 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>SELECT
+    a.ENTITY_NAME AS school_name,
+    AVG(CAST(a.WEIGHTED_INDEX AS REAL)) AS avg_weighted_index
+FROM ACC_HS_Core_and_Weighted_Performance a
+JOIN Institution_Grouping b
+    ON a.ENTITY_CD = b.ENTITY_CD
+WHERE b.GROUP_NAME = 'Public School District'
+  AND a.SUBJECT = 'Science'
+  AND a.WEIGHTED_INDEX &lt;&gt; 's'
+GROUP BY a.ENTITY_NAME
+ORDER BY avg_weighted_index ASC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-1</v>
+        <v>863</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -14706,24 +14978,20 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SELECT ELL_COUNT,
-       BENCHMARK,
-       PROGRESS_RATE,
-       SUCCESS_RATIO,
-       LEVEL
+          <t>SELECT ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL
 FROM ACC_HS_ELP
-WHERE ENTITY_NAME = 'Alfred E Smith Career-Tech HS'
-  AND YEAR = '2022'
+WHERE YEAR = '2022'
+  AND ENTITY_NAME = 'Alfred E Smith Career-Tech HS'
   AND SUBGROUP_NAME = 'All Students';</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H332" t="b">
         <v>0</v>
@@ -14754,23 +15022,21 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>SELECT
-    a.SUBGROUP_NAME,
-    AVG(CAST(a.ELL_COUNT AS REAL)) AS avg_ell_count
-FROM ACC_HS_ELP a
-JOIN Institution_Grouping i
-    ON a.ENTITY_CD = i.ENTITY_CD
-WHERE i.GROUP_NAME = 'public school'
-GROUP BY a.SUBGROUP_NAME
-ORDER BY a.SUBGROUP_NAME;</t>
+    SUBGROUP_NAME,
+    AVG(CAST(ELL_COUNT AS REAL)) AS avg_ell_count
+FROM ACC_HS_ELP
+JOIN Institution_Grouping USING (ENTITY_CD)
+WHERE GROUP_NAME = 'Public High School'
+GROUP BY SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>621</v>
+        <v>541</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -14798,21 +15064,35 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>SELECT a.ENTITY_NAME,
+       a.ELL_COUNT,
+       e.PER_FED_STATE_LOCAL_EXP
+FROM ACC_HS_ELP a
+JOIN Expenditures_per_Pupil e
+  ON a.ENTITY_CD = e.ENTITY_CD
+ AND e.YEAR = 2022
+WHERE a.YEAR = '2022'
+  AND a.SUBGROUP_NAME = 'All Students'
+ORDER BY CAST(a.ELL_COUNT AS INTEGER) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-1</v>
+        <v>763</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14853,11 +15133,11 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="H335" t="b">
         <v>1</v>
@@ -14896,11 +15176,11 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>465</v>
+        <v>578</v>
       </c>
       <c r="H336" t="b">
         <v>1</v>
@@ -14938,19 +15218,16 @@
     Accountability_Status_by_Subgroup
 WHERE
     ENTITY_NAME = 'albany city SD'
-    AND YEAR = '2021'
-ORDER BY
-    SCHOOL_TYPE,
-    SUBGROUP_NAME;</t>
+    AND YEAR = '2021';</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="H337" t="b">
         <v>0</v>
@@ -14982,96 +15259,88 @@
         <is>
           <t>SELECT
     a.ASSESSMENT_NAME,
-    AVG(CAST(a."LEVEL1_%TESTED" AS REAL)) AS avg_level1_percent_tested,
-    AVG(CAST(a."LEVEL2_%TESTED" AS REAL)) AS avg_level2_percent_tested,
-    AVG(CAST(a."LEVEL3_%TESTED" AS REAL)) AS avg_level3_percent_tested,
-    AVG(CAST(a."LEVEL4_%TESTED" AS REAL)) AS avg_level4_percent_tested
-FROM Annual_EM_SCIENCE a
-JOIN Institution_Grouping i
-    ON a.ENTITY_CD = i.ENTITY_CD
-WHERE i.GROUP_NAME = 'public school'
-  AND a.ASSESSMENT_NAME LIKE '%Elementary%'
-  AND a."LEVEL1_%TESTED" != 's'
-  AND a."LEVEL2_%TESTED" != 's'
-  AND a."LEVEL3_%TESTED" != 's'
-  AND a."LEVEL4_%TESTED" != 's'
-GROUP BY a.ASSESSMENT_NAME;</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>1401</v>
-      </c>
-      <c r="H338" t="b">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>empty result set</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>37</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>openai/gpt-oss-120b</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>SELECT
-    a.SUBGROUP_NAME,
-    AVG(CAST(a.LEVEL1_%TESTED AS FLOAT)) AS avg_level1_percent_tested,
-    AVG(CAST(a.LEVEL2_%TESTED AS FLOAT)) AS avg_level2_percent_tested,
-    AVG(CAST(a.LEVEL3_%TESTED AS FLOAT)) AS avg_level3_percent_tested,
-    AVG(CAST(a.LEVEL4_%TESTED AS FLOAT)) AS avg_level4_percent_tested
+    AVG(CASE WHEN a.LEVEL1_%TESTED &lt;&gt; 's' THEN CAST(a.LEVEL1_%TESTED AS REAL) END) AS avg_level1_percent_tested,
+    AVG(CASE WHEN a.LEVEL2_%TESTED &lt;&gt; 's' THEN CAST(a.LEVEL2_%TESTED AS REAL) END) AS avg_level2_percent_tested,
+    AVG(CASE WHEN a.LEVEL3_%TESTED &lt;&gt; 's' THEN CAST(a.LEVEL3_%TESTED AS REAL) END) AS avg_level3_percent_tested,
+    AVG(CASE WHEN a.LEVEL4_%TESTED &lt;&gt; 's' THEN CAST(a.LEVEL4_%TESTED AS REAL) END) AS avg_level4_percent_tested
 FROM
     Annual_EM_SCIENCE a
 JOIN
     Institution_Grouping ig
     ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE
-    ig.GROUP_NAME = 'public school'
-    AND a.ASSESSMENT_NAME = 'Science8'
-    AND a.LEVEL1_%TESTED &lt;&gt; 's'
-    AND a.LEVEL2_%TESTED &lt;&gt; 's'
-    AND a.LEVEL3_%TESTED &lt;&gt; 's'
-    AND a.LEVEL4_%TESTED &lt;&gt; 's'
+    ig.GROUP_NAME = 'Public Elementary'
 GROUP BY
-    a.SUBGROUP_NAME
-ORDER BY
-    a.SUBGROUP_NAME;</t>
+    a.ASSESSMENT_NAME;</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>791</v>
+      </c>
+      <c r="H338" t="b">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Insufficient number of columns in generated result set</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>37</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>openai/gpt-oss-120b</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>SELECT
+    a.SUBGROUP_NAME,
+    AVG(CAST(a."LEVEL1_%TESTED" AS REAL)) AS avg_level1_tested,
+    AVG(CAST(a."LEVEL2_%TESTED" AS REAL)) AS avg_level2_tested,
+    AVG(CAST(a."LEVEL3_%TESTED" AS REAL)) AS avg_level3_tested,
+    AVG(CAST(a."LEVEL4_%TESTED" AS REAL)) AS avg_level4_tested
+FROM Annual_EM_SCIENCE a
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE a.ASSESSMENT_NAME = 'Science8'
+  AND ig.GROUP_NAME = 'Public Elementary'
+  AND a."LEVEL1_%TESTED" &lt;&gt; 's'
+  AND a."LEVEL2_%TESTED" &lt;&gt; 's'
+  AND a."LEVEL3_%TESTED" &lt;&gt; 's'
+  AND a."LEVEL4_%TESTED" &lt;&gt; 's'
+GROUP BY a.SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>912</v>
+        <v>993</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Insufficient number of columns in generated result set</t>
+          <t>empty result set</t>
         </is>
       </c>
     </row>
@@ -15100,7 +15369,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -15144,11 +15413,11 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
-        <v>589</v>
+        <v>680</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -15188,11 +15457,11 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -15224,15 +15493,15 @@
         <is>
           <t>SELECT
     a.SUBJECT,
-    AVG(CAST(a.PER_ENT AS FLOAT)) AS avg_percent
+    AVG(CAST(a.PER_ENT AS REAL)) AS avg_percent
 FROM
     Annual_NYSESLAT AS a
 JOIN
-    Institution_Grouping AS i
-    ON a.ENTITY_CD = i.ENTITY_CD
+    Institution_Grouping AS ig
+    ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE
-    i.GROUP_NAME = 'public school'
-    AND a.YEAR = 2021
+    a.YEAR = 2021
+    AND ig.GROUP_NAME = 'Public'
     AND a.PER_ENT &lt;&gt; 's'
 GROUP BY
     a.SUBJECT;</t>
@@ -15240,11 +15509,11 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>755</v>
+        <v>862</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -15274,28 +15543,28 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>SELECT
+          <t>SELECT 
     a.SUBJECT,
-    AVG(CASE WHEN a.PER_ENT != 's' THEN CAST(a.PER_ENT AS REAL) END) AS avg_per_ent,
-    AVG(CASE WHEN a.PER_EMER != 's' THEN CAST(a.PER_EMER AS REAL) END) AS avg_per_emer,
-    AVG(CASE WHEN a.PER_TRAN != 's' THEN CAST(a.PER_TRAN AS REAL) END) AS avg_per_tran,
-    AVG(CASE WHEN a.PER_EXP != 's' THEN CAST(a.PER_EXP AS REAL) END) AS avg_per_exp,
-    AVG(CASE WHEN a.PER_COM != 's' THEN CAST(a.PER_COM AS REAL) END) AS avg_per_com
+    AVG(CASE WHEN a.PER_ENT = 's' THEN NULL ELSE CAST(a.PER_ENT AS REAL) END) AS avg_entering,
+    AVG(CASE WHEN a.PER_EMER = 's' THEN NULL ELSE CAST(a.PER_EMER AS REAL) END) AS avg_emerging,
+    AVG(CASE WHEN a.PER_TRAN = 's' THEN NULL ELSE CAST(a.PER_TRAN AS REAL) END) AS avg_transitioning,
+    AVG(CASE WHEN a.PER_EXP = 's' THEN NULL ELSE CAST(a.PER_EXP AS REAL) END) AS avg_expanding,
+    AVG(CASE WHEN a.PER_COM = 's' THEN NULL ELSE CAST(a.PER_COM AS REAL) END) AS avg_commanding
 FROM Annual_NYSESLAT a
-JOIN Institution_Grouping i
-    ON a.ENTITY_CD = i.ENTITY_CD
+JOIN Institution_Grouping ig
+    ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE a.YEAR = 2021
-  AND i.GROUP_NAME = 'public school'
+  AND ig.GROUP_NAME = 'Public'
 GROUP BY a.SUBJECT;</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>1214</v>
+        <v>1245</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
@@ -15335,11 +15604,11 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -15382,7 +15651,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -15416,24 +15685,24 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SELECT 
+          <t>SELECT
     COUNTY_NAME,
     COUNT(DISTINCT SCHOOL_NAME) AS school_count
-FROM 
+FROM
     "BOCES_and_N/RC"
-WHERE 
+WHERE
     YEAR = 2020
-GROUP BY 
+GROUP BY
     COUNTY_NAME;</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="H347" t="b">
         <v>1</v>
@@ -15465,23 +15734,23 @@
         <is>
           <t>SELECT 
     b.BOCES_NAME,
-    AVG(CAST(e.PER_FEDERAL_EXP AS FLOAT)) AS avg_federal_expenditure,
-    AVG(CAST(e.PER_STATE_LOCAL_EXP AS FLOAT)) AS avg_state_local_expenditure
+    AVG(e.PER_FEDERAL_EXP) AS avg_federal_expenditure,
+    AVG(e.PER_STATE_LOCAL_EXP) AS avg_state_local_expenditure
 FROM "BOCES_and_N/RC" AS b
 JOIN Expenditures_per_Pupil AS e
     ON b.ENTITY_CD = e.ENTITY_CD
-   AND b.YEAR = e.YEAR
 WHERE b.YEAR = 2021
+  AND e.YEAR = 2021
 GROUP BY b.BOCES_NAME;</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>807</v>
+        <v>584</v>
       </c>
       <c r="H348" t="b">
         <v>1</v>
@@ -15511,17 +15780,17 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS count
+          <t>SELECT COUNT(*) AS total_boces
 FROM "BOCES_and_N/RC";</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="H349" t="b">
         <v>0</v>
@@ -15559,16 +15828,16 @@
 GROUP BY
     BOCES_NAME
 HAVING
-    COUNT(DISTINCT COUNTY_NAME) &gt; 1;</t>
+    county_count &gt; 1;</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="H350" t="b">
         <v>1</v>
@@ -15598,7 +15867,10 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SELECT NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP
+          <t>SELECT 
+    NUM_TEACH,
+    NUM_TEACH_INEXP,
+    PER_TEACH_INEXP
 FROM Inexperienced_Teachers_and_Principals
 WHERE ENTITY_NAME = 'sheridan prep academy'
   AND YEAR = 2021;</t>
@@ -15606,11 +15878,11 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="H351" t="b">
         <v>0</v>
@@ -15638,21 +15910,31 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_CD,
+       ENTITY_NAME,
+       PER_TEACH_INEXP
+FROM   Inexperienced_Teachers_and_Principals
+WHERE  YEAR = 2021
+ORDER BY PER_TEACH_INEXP DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-1</v>
+        <v>481</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15673,21 +15955,31 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>SELECT b.DISTRICT_NAME,
+       AVG(i.PER_TEACH_INEXP) AS avg_inexperienced_percentage
+FROM Inexperienced_Teachers_and_Principals i
+JOIN "BOCES_and_N/RC" b ON i.ENTITY_CD = b.ENTITY_CD
+GROUP BY b.DISTRICT_NAME
+ORDER BY avg_inexperienced_percentage DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-1</v>
+        <v>530</v>
       </c>
       <c r="H353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -15710,17 +16002,17 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SELECT AVG(TOT_TEACH_LOW + TOT_PRINC_LOW) AS avg_total_teachers_principals
+          <t>SELECT AVG(TOT_TEACH_LOW + TOT_PRINC_LOW) AS avg_total
 FROM Inexperienced_Teachers_and_Principals;</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H354" t="b">
         <v>0</v>
@@ -15758,11 +16050,11 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="H355" t="b">
         <v>1</v>
@@ -15792,22 +16084,27 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SELECT GRADUATE_COUNT,
-       PER_NYS_PUB_2_YR,
-       PER_NYS_PUB_4_YR
-FROM Postsecondary_Enrollment
-WHERE ENTITY_NAME = 'Oneida Senior High School'
-  AND YEAR = 2022
-  AND SUBGROUP_NAME = 'All Students';</t>
+          <t>SELECT 
+    ENTITY_NAME,
+    YEAR,
+    SUBGROUP_NAME,
+    PER_NYS_PUB_2_YR,
+    PER_NYS_PUB_4_YR
+FROM 
+    Postsecondary_Enrollment
+WHERE 
+    ENTITY_NAME = 'Oneida Senior High School' 
+    AND YEAR = 2022 
+    AND SUBGROUP_NAME = 'All Students';</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>1047</v>
+        <v>982</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -15835,21 +16132,31 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>SELECT t.ENTITY_NAME
+FROM Teachers_Teaching_Out_of_Certification t
+JOIN Institution_Grouping i ON t.ENTITY_CD = i.ENTITY_CD
+WHERE t.YEAR = 2021
+  AND i.GROUP_NAME = 'Public School District'
+ORDER BY t.NUM_OUT_CERT DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>-1</v>
+        <v>564</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15880,11 +16187,11 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="H358" t="b">
         <v>0</v>
@@ -15914,22 +16221,21 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>SELECT 
-    b.COUNTY_NAME,
-    SUM(t.NUM_OUT_CERT) AS total_teachers_out_of_cert
+          <t>SELECT b.COUNTY_NAME,
+       SUM(t.NUM_OUT_CERT) AS total_teachers_out_of_cert
 FROM "BOCES_and_N/RC" AS b
 JOIN Teachers_Teaching_Out_of_Certification AS t
-    ON b.ENTITY_CD = t.ENTITY_CD
+  ON b.ENTITY_CD = t.ENTITY_CD
 GROUP BY b.COUNTY_NAME;</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H359" t="b">
         <v>1</v>
@@ -15975,11 +16281,11 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="H360" t="b">
         <v>0</v>
@@ -16007,21 +16313,35 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>SELECT t.ENTITY_NAME
+FROM Total_Cohort_Regents_Exams t
+JOIN Institution_Grouping i ON t.ENTITY_CD = i.ENTITY_CD
+WHERE i.GROUP_NAME = 'Public School'
+  AND t.COHORT = 2017
+  AND t.SUBGROUP_NAME = 'all students'
+  AND t.SUBJECT = 'Math'
+  AND t.LEVEL4_%COHORT &lt;&gt; 's'
+  AND t.LEVEL4_%COHORT IS NOT NULL
+ORDER BY CAST(t.LEVEL4_%COHORT AS REAL) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>-1</v>
+        <v>867</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -16050,7 +16370,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -16094,11 +16414,11 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="H363" t="b">
         <v>0</v>
@@ -16126,21 +16446,32 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>SELECT pe.ENTITY_NAME
+FROM Postsecondary_Enrollment pe
+JOIN Institution_Grouping ig ON pe.ENTITY_CD = ig.ENTITY_CD
+WHERE ig.GROUP_NAME = 'Public School'
+  AND pe.YEAR = 2022
+  AND pe.PER_OUT_4_YR &lt;&gt; 's'
+ORDER BY CAST(REPLACE(pe.PER_OUT_4_YR, '%', '') AS REAL) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-1</v>
+        <v>706</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16169,11 +16500,11 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H365" t="b">
         <v>1</v>
@@ -16209,11 +16540,11 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="H366" t="b">
         <v>0</v>
@@ -16254,7 +16585,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -16295,7 +16626,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -16329,18 +16660,22 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>SELECT Station_ID, COUNT(*) AS event_count
-FROM tbl_Events
-GROUP BY Station_ID;</t>
+          <t>SELECT
+    Station_ID,
+    COUNT(*) AS event_count
+FROM
+    tbl_Events
+GROUP BY
+    Station_ID;</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H369" t="b">
         <v>1</v>
@@ -16379,7 +16714,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -16420,7 +16755,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -16464,7 +16799,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -16506,7 +16841,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -16540,21 +16875,19 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>SELECT s.Habitat,
-       COUNT(o.Species_ID) AS observation_count
-FROM tbl_Observations AS o
-JOIN tlu_Species AS s
-  ON o.Species_ID = s.Species_ID
+          <t>SELECT s.Habitat, COUNT(*) AS observation_count
+FROM tbl_Observations o
+JOIN tlu_Species s ON o.Species_ID = s.Species_ID
 GROUP BY s.Habitat;</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="H374" t="b">
         <v>1</v>
@@ -16592,11 +16925,11 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H375" t="b">
         <v>1</v>
@@ -16624,21 +16957,36 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT s.Scientific_Name,
+       s.Common_Name
+FROM tlu_Species AS s
+JOIN (
+    SELECT Species_ID,
+           COUNT(*) AS obs_cnt
+    FROM tbl_Observations
+    GROUP BY Species_ID
+    ORDER BY obs_cnt DESC
+    LIMIT 3
+) AS o ON s.Species_ID = o.Species_ID
+ORDER BY o.obs_cnt DESC;</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>508</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16659,21 +17007,33 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT 
+    h.Understory_Comp,
+    h.Canopy_Comp
+FROM tbl_Events e
+JOIN tbl_Habitat h ON e.Event_ID = h.Event_ID
+WHERE e.Entered_by = 'Caitlin Jensen'
+GROUP BY h.Understory_Comp, h.Canopy_Comp
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>503</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16705,11 +17065,11 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="H378" t="b">
         <v>1</v>
@@ -16750,11 +17110,11 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H379" t="b">
         <v>1</v>
@@ -16790,7 +17150,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -16822,21 +17182,29 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT s.Common_Name
+FROM tbl_Detections d
+JOIN tbl_Observations o ON d.Observation_ID = o.Observation_ID
+JOIN tlu_Species s ON o.Species_ID = s.Species_ID
+WHERE d.Distance = (SELECT MAX(Distance) FROM tbl_Detections);</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>490</v>
       </c>
       <c r="H381" t="b">
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16859,21 +17227,25 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>SELECT s.Common_Name,
-       a.Alternate_Name
-FROM   tlu_Species AS s
-LEFT JOIN xref_Species_Alternate_Names AS a
-       ON s.Species_ID = a.Species_ID
-WHERE  s.Family = 'Laridae';</t>
+          <t>SELECT 
+    s.Common_Name,
+    a.Alternate_Name
+FROM 
+    tlu_Species AS s
+LEFT JOIN 
+    xref_Species_Alternate_Names AS a
+    ON s.Species_ID = a.Species_ID
+WHERE 
+    s.Family = 'Laridae';</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="H382" t="b">
         <v>0</v>
@@ -16909,7 +17281,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -16945,18 +17317,18 @@
         <is>
           <t>SELECT s.Station
 FROM tbl_Stations AS s
-JOIN tbl_Stations_UTMs AS u USING (Station_ID)
+JOIN tbl_Stations_UTMs AS u ON s.Station_ID = u.Station_ID
 WHERE u.X_final = 272454
   AND u.Y_final = 2141631;</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="H384" t="b">
         <v>1</v>
@@ -16993,7 +17365,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -17035,11 +17407,11 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -17076,7 +17448,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -17117,11 +17489,11 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H388" t="b">
         <v>0</v>
@@ -17151,31 +17523,26 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>SELECT
-    Datum,
-    COUNT(*) AS location_count
-FROM
-    tbl_Stations_UTMs
-WHERE
-    Datum IN ('WGS84', 'NAD83')
-GROUP BY
-    Datum;</t>
+          <t>SELECT 
+    SUM(CASE WHEN Datum = 'WGS84' THEN 1 ELSE 0 END) AS WGS84_count,
+    SUM(CASE WHEN Datum = 'NAD83' THEN 1 ELSE 0 END) AS NAD83_count
+FROM tbl_Stations_UTMs;</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="H389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -17207,11 +17574,11 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H390" t="b">
         <v>1</v>
@@ -17248,7 +17615,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -17295,11 +17662,11 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
         </is>
       </c>
       <c r="G392" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H392" t="b">
         <v>1</v>
@@ -17327,21 +17694,31 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT l.Island, COUNT(*) AS station_count
+FROM tbl_Stations s
+JOIN tbl_Transect t ON s.Transect_ID = t.Transect_ID
+JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
+GROUP BY l.Island
+ORDER BY station_count ASC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>518</v>
       </c>
       <c r="H393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -17365,19 +17742,19 @@
       <c r="E394" t="inlineStr">
         <is>
           <t>SELECT DISTINCT s.Family, s.Species_Code
-FROM tbl_Observations o
-JOIN tbl_Event_Details d ON o.Event_ID = d.Event_ID
-JOIN tlu_Species s ON o.Species_ID = s.Species_ID
+FROM tbl_Observations AS o
+JOIN tbl_Event_Details AS d ON o.Event_ID = d.Event_ID
+JOIN tlu_Species AS s ON o.Species_ID = s.Species_ID
 WHERE d.Rain = 1;</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H394" t="b">
         <v>1</v>
@@ -17417,11 +17794,11 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H395" t="b">
         <v>1</v>
@@ -17456,9 +17833,9 @@
     sp.Common_Name,
     COUNT(*) AS Observation_Count
 FROM tbl_Stations s
-JOIN tbl_Events e ON s.Station_ID = e.Station_ID
-JOIN tbl_Observations o ON e.Event_ID = o.Event_ID
-JOIN tlu_Species sp ON o.Species_ID = sp.Species_ID
+JOIN tbl_Events e ON e.Station_ID = s.Station_ID
+JOIN tbl_Observations o ON o.Event_ID = e.Event_ID
+JOIN tlu_Species sp ON sp.Species_ID = o.Species_ID
 WHERE s.Station_ID IN ('2', '3')
 GROUP BY s.Station, sp.Common_Name
 ORDER BY s.Station, sp.Common_Name;</t>
@@ -17466,11 +17843,11 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -17510,7 +17887,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -17542,21 +17919,28 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final, Long_final
+FROM tbl_Stations
+ORDER BY Lat_final DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>333</v>
       </c>
       <c r="H398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -17588,7 +17972,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -17623,21 +18007,21 @@
       <c r="E400" t="inlineStr">
         <is>
           <t>SELECT 
-    COUNT(DISTINCT s.Station_ID) * 100.0 / (SELECT COUNT(*) FROM tbl_Stations) AS percent
+    (COUNT(DISTINCT s.Station_ID) * 100.0) / (SELECT COUNT(*) FROM tbl_Stations) AS percent_of_stations
 FROM tbl_Stations s
-JOIN tbl_Events e ON s.Station_ID = e.Station_ID
-JOIN tbl_Observations o ON e.Event_ID = o.Event_ID
-JOIN tlu_Species sp ON o.Species_ID = sp.Species_ID
+JOIN tbl_Events e ON e.Station_ID = s.Station_ID
+JOIN tbl_Observations o ON o.Event_ID = e.Event_ID
+JOIN tlu_Species sp ON sp.Species_ID = o.Species_ID
 WHERE sp.Common_Name = 'Hawaii Amakihi';</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
@@ -17672,7 +18056,7 @@
     c.Last_Name,
     COUNT(e.Contact_ID) AS event_count
 FROM tlu_Contacts AS c
-JOIN xref_Event_Contacts AS e
+LEFT JOIN xref_Event_Contacts AS e
     ON c.Contact_ID = e.Contact_ID
 WHERE c.Organization = 'National Park Service'
 GROUP BY c.Contact_ID, c.First_Name, c.Last_Name;</t>
@@ -17680,18 +18064,18 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -17726,7 +18110,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G402" t="n">
@@ -17805,11 +18189,11 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -17837,21 +18221,35 @@
           <t>openai/gpt-oss-120b</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT l.Island
+FROM tbl_Observations o
+JOIN tlu_Species s ON o.Species_ID = s.Species_ID
+JOIN tbl_Events e ON o.Event_ID = e.Event_ID
+JOIN tbl_Stations st ON e.Station_ID = st.Station_ID
+JOIN tbl_Transect tr ON st.Transect_ID = tr.Transect_ID
+JOIN tbl_Locations l ON tr.Location_ID = l.Location_ID
+WHERE s.Common_Name = 'Pacific Kingfisher'
+GROUP BY l.Island
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>739</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -17874,7 +18272,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT ReconType) AS internal_recon_type_count
+          <t>SELECT COUNT(DISTINCT ReconType) AS InternalReconciliationTypeCount
 FROM OITR;</t>
         </is>
       </c>
@@ -17884,7 +18282,7 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="H405" t="b">
         <v>1</v>
@@ -17915,15 +18313,15 @@
       <c r="E406" t="inlineStr">
         <is>
           <t>SELECT 
-    e.PayeeName,
-    e.PayeeZip,
-    e.PayeeCity,
-    e.PayeeStree,
-    e.PayCountry,
-    e.PayeeState
-FROM OPEX AS e
-JOIN OUDP AS d ON e.Department = d.Code
-WHERE d.Name = 'General';</t>
+    OPEX.PayeeName,
+    OPEX.PayeeZip,
+    OPEX.PayeeCity,
+    OPEX.PayeeStree,
+    OPEX.PayCountry,
+    OPEX.PayeeState
+FROM OPEX
+JOIN OUDP ON OPEX.Department = OUDP.Code
+WHERE OUDP.Name = 'General';</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -17932,7 +18330,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H406" t="b">
         <v>1</v>
@@ -17962,11 +18360,14 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT o.AcctNum
-FROM OCHO o
-JOIN CHO1 c ON c.CheckKey = o.CheckKey
-GROUP BY o.CheckKey, o.AcctNum
-HAVING COUNT(*) &gt; 1;</t>
+          <t>SELECT DISTINCT AcctNum
+FROM OCHO
+WHERE CheckKey IN (
+    SELECT CheckKey
+    FROM OCHO
+    GROUP BY CheckKey
+    HAVING COUNT(*) &gt; 1
+);</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -17975,14 +18376,14 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>702</v>
+        <v>425</v>
       </c>
       <c r="H407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -18016,7 +18417,7 @@
         </is>
       </c>
       <c r="G408" t="n">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="H408" t="b">
         <v>1</v>
@@ -18058,7 +18459,7 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H409" t="b">
         <v>0</v>
@@ -18088,15 +18489,13 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>SELECT 
-    r.AcctNum,
-    o.WTOnhldPst,
-    SUM(o.CheckSumFC) AS TotalCheckSumFC
-FROM ORCT AS o
-JOIN RCT1 AS r
-    ON o.DocNum = r.DocNum
+          <t>SELECT o.WTOnhldPst,
+       r.AcctNum,
+       SUM(o.CheckSumFC) AS total_CheckSumFC
+FROM ORCT o
+JOIN RCT1 r ON o.DocNum = r.DocNum
 WHERE r.CountryCod = 'CA'
-GROUP BY r.AcctNum, o.WTOnhldPst;</t>
+GROUP BY o.WTOnhldPst, r.AcctNum;</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -18105,7 +18504,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>691</v>
+        <v>630</v>
       </c>
       <c r="H410" t="b">
         <v>0</v>
@@ -18146,7 +18545,7 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H411" t="b">
         <v>1</v>
@@ -18176,7 +18575,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>SELECT AVG(RCT3.FirstSum) AS avg_first_sum
+          <t>SELECT AVG(RCT3.FirstSum) AS average_first_partial_payment
 FROM ORCT
 JOIN RCT3 USING (DocNum);</t>
         </is>
@@ -18187,7 +18586,7 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="H412" t="b">
         <v>1</v>
@@ -18272,7 +18671,7 @@
         </is>
       </c>
       <c r="G414" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H414" t="b">
         <v>1</v>
@@ -18305,9 +18704,9 @@
           <t>SELECT
     OCRG.GroupName,
     COUNT(OCRD.GroupCode) AS PartnerCount
-FROM OCRD
-JOIN OCRG ON OCRD.GroupCode = OCRG.GroupCode
-GROUP BY OCRG.GroupName;</t>
+FROM OCRG
+LEFT JOIN OCRD ON OCRG.GroupCode = OCRD.GroupCode
+GROUP BY OCRG.GroupCode, OCRG.GroupName;</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -18316,14 +18715,14 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="H415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -18398,7 +18797,7 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H417" t="b">
         <v>1</v>
@@ -18431,7 +18830,7 @@
           <t>SELECT SlpName
 FROM OSLP
 JOIN OCOG USING (GroupCode)
-WHERE GroupName = 'high commission';</t>
+WHERE GroupName = 'High Commission';</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -18440,14 +18839,14 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="H418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18881,7 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H419" t="b">
         <v>1</v>
@@ -18524,7 +18923,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H420" t="b">
         <v>1</v>
@@ -18554,10 +18953,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>SELECT ClgCode,
-       CntctTime,
-       CntctDate,
-       Details
+          <t>SELECT ClgCode, CntctTime, CntctDate, Details
 FROM OCLG
 WHERE strftime('%Y', CreateDate) = '2021';</t>
         </is>
@@ -18568,7 +18964,7 @@
         </is>
       </c>
       <c r="G421" t="n">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H421" t="b">
         <v>0</v>
@@ -18614,7 +19010,7 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H422" t="b">
         <v>0</v>
@@ -18656,7 +19052,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H423" t="b">
         <v>1</v>
@@ -18687,8 +19083,8 @@
       <c r="E424" t="inlineStr">
         <is>
           <t>SELECT t.E_Mail, t.LicTradNum
-FROM TGG1 AS t
-JOIN OTGG AS o ON t.TargetCode = o.TargetCode
+FROM TGG1 t
+JOIN OTGG o ON t.TargetCode = o.TargetCode
 WHERE t.Position = 'CIO' 
   AND o.TargetType = 'C';</t>
         </is>
@@ -18699,7 +19095,7 @@
         </is>
       </c>
       <c r="G424" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H424" t="b">
         <v>1</v>
@@ -18744,7 +19140,7 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="H425" t="b">
         <v>1</v>
@@ -18778,7 +19174,8 @@
     SUM(Debit) AS total_debit,
     SUM(Credit) AS total_credit
 FROM JDT1
-WHERE strftime('%Y', DueDate) = '2021';</t>
+WHERE DueDate &gt;= '2021-01-01' 
+  AND DueDate &lt; '2022-01-01';</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -18833,7 +19230,7 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="H427" t="b">
         <v>1</v>
@@ -18875,7 +19272,7 @@
         </is>
       </c>
       <c r="G428" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H428" t="b">
         <v>0</v>
@@ -18905,13 +19302,12 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>SELECT
-    TAX1.TaxCode,
-    TAX1.VatPercent,
-    TAX1.VatSum
-FROM OTAX
-JOIN TAX1 ON OTAX.AbsEntry = TAX1.AbsEntry
-WHERE OTAX.SrcObjAbs = 18;</t>
+          <t>SELECT t.TaxCode,
+       t.VatPercent,
+       t.VatSum
+FROM OTAX o
+JOIN TAX1 t ON o.AbsEntry = t.AbsEntry
+WHERE o.SrcObjAbs = 18;</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -18920,7 +19316,7 @@
         </is>
       </c>
       <c r="G429" t="n">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="H429" t="b">
         <v>1</v>
@@ -18985,7 +19381,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>SELECT strftime('%Y', NextDeu) AS year, COUNT(*) AS count
+          <t>SELECT strftime('%Y', NextDeu) AS year, COUNT(*) AS posting_count
 FROM ORCR
 GROUP BY year
 ORDER BY year;</t>
@@ -18997,7 +19393,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -19069,7 +19465,7 @@
       <c r="E433" t="inlineStr">
         <is>
           <t>SELECT 
-    OFRC.Name AS report_category_name,
+    OFRC.Name,
     FRC1.CalcMethod,
     FRC1.CalMethod2,
     FRC1.CalMethod3
@@ -19084,7 +19480,7 @@
         </is>
       </c>
       <c r="G433" t="n">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H433" t="b">
         <v>1</v>
@@ -19125,7 +19521,7 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="H434" t="b">
         <v>0</v>
@@ -19207,7 +19603,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H436" t="b">
         <v>1</v>
@@ -19239,7 +19635,7 @@
         <is>
           <t>SELECT COUNT(*) 
 FROM DAB1 
-WHERE DsbEntry IN (
+WHERE DsbEntry = (
     SELECT AbsEntry 
     FROM ODAB 
     WHERE DashbdCode = 'DAB002'
@@ -19252,7 +19648,7 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H437" t="b">
         <v>1</v>
@@ -19282,13 +19678,14 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>SELECT 
+          <t>SELECT
     o.DashbdName,
     o.DashbdPath,
     o.Status,
     d.QryName
 FROM ODAB AS o
-JOIN DAB1 AS d ON d.DsbEntry = o.AbsEntry
+JOIN DAB1 AS d
+    ON o.AbsEntry = d.DsbEntry
 WHERE d.QryCtgry = 2;</t>
         </is>
       </c>
@@ -19298,7 +19695,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="H438" t="b">
         <v>1</v>
@@ -19339,7 +19736,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H439" t="b">
         <v>1</v>
@@ -19384,7 +19781,7 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H440" t="b">
         <v>1</v>
@@ -19427,7 +19824,7 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H441" t="b">
         <v>1</v>
@@ -19459,8 +19856,8 @@
         <is>
           <t>SELECT
     OPMG.NAME AS project_name,
-    PMG2.REMARKS AS issue_remarks,
-    PMG2.SOLUTION AS issue_solution
+    PMG2.REMARKS AS open_issue_remarks,
+    PMG2.SOLUTION AS open_issue_solution
 FROM OPMG
 JOIN PMG2 ON OPMG.AbsEntry = PMG2.AbsEntry;</t>
         </is>
@@ -19471,7 +19868,7 @@
         </is>
       </c>
       <c r="G442" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H442" t="b">
         <v>1</v>
@@ -19501,10 +19898,10 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>SELECT c._Left, c._Right, c._Top, c._Bottom
-FROM CPT1 AS c
-JOIN OCPT AS o ON c.AbsEntry = o.AbsEntry
-WHERE o.Name = 'purchase';</t>
+          <t>SELECT CPT1._Left, CPT1._Right, CPT1._Top, CPT1._Bottom
+FROM CPT1
+JOIN OCPT ON CPT1.AbsEntry = OCPT.AbsEntry
+WHERE OCPT.Name = 'purchase';</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -19513,7 +19910,7 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="H443" t="b">
         <v>0</v>
@@ -19554,7 +19951,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="H444" t="b">
         <v>1</v>
@@ -19597,7 +19994,7 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H445" t="b">
         <v>1</v>
@@ -19638,7 +20035,7 @@
         </is>
       </c>
       <c r="G446" t="n">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="H446" t="b">
         <v>0</v>
@@ -19672,7 +20069,7 @@
 FROM OHEM
 JOIN HTM1 ON OHEM.empID = HTM1.empID
 JOIN OHTM ON HTM1.teamID = OHTM.teamID
-WHERE LOWER(OHTM.name) = 'purchasing';</t>
+WHERE OHTM.name = 'purchasing';</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -19681,14 +20078,14 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="H447" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -19752,8 +20149,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>SELECT FNameSP AS spouseFirstName,
-       SurnameSP AS spouseLastName
+          <t>SELECT FNameSP AS firstName, SurnameSP AS lastName
 FROM OHEM
 WHERE firstName = 'Maria' AND lastName = 'Bridi';</t>
         </is>
@@ -19764,7 +20160,7 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H449" t="b">
         <v>1</v>
@@ -19808,7 +20204,7 @@
         </is>
       </c>
       <c r="G450" t="n">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="H450" t="b">
         <v>1</v>
@@ -19848,7 +20244,7 @@
         </is>
       </c>
       <c r="G451" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H451" t="b">
         <v>1</v>
@@ -19963,10 +20359,10 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SELECT AVG(OHEM.VacCurYear) AS average_vacation_days
+          <t>SELECT AVG(OHEM.VacCurYear) AS avg_vac_days
 FROM OHTM
-JOIN HTM1 ON OHTM.teamID = HTM1.teamID
-JOIN OHEM ON HTM1.empID = OHEM.empID
+JOIN HTM1 USING (teamID)
+JOIN OHEM USING (empID)
 WHERE OHTM.name = 'sales';</t>
         </is>
       </c>
@@ -19976,7 +20372,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="H454" t="b">
         <v>1</v>
@@ -20018,7 +20414,7 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="H455" t="b">
         <v>0</v>
@@ -20062,7 +20458,7 @@
         </is>
       </c>
       <c r="G456" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H456" t="b">
         <v>0</v>
@@ -20092,9 +20488,9 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>SELECT HEM6.roleID
+          <t>SELECT DISTINCT HEM6.roleID
 FROM HEM6
-JOIN OHEM ON HEM6.empID = OHEM.empID
+JOIN OHEM USING (empID)
 WHERE OHEM.salary &lt; 5000;</t>
         </is>
       </c>
@@ -20104,14 +20500,14 @@
         </is>
       </c>
       <c r="G457" t="n">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="H457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -20190,7 +20586,7 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H459" t="b">
         <v>1</v>
@@ -20231,7 +20627,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H460" t="b">
         <v>0</v>
@@ -20261,15 +20657,15 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>SELECT o.MunKey,
-       o.homeCity,
-       o.homeTel,
-       o.workCity,
-       o.officeTel
-FROM OHTM AS t
-JOIN HTM1 AS h ON t.teamID = h.teamID
-JOIN OHEM AS o ON h.empID = o.empID
-WHERE t.name = 'sales';</t>
+          <t>SELECT OHEM.MunKey,
+       OHEM.homeCity,
+       OHEM.homeTel,
+       OHEM.workCity,
+       OHEM.officeTel
+FROM OHEM
+JOIN HTM1 ON OHEM.empID = HTM1.empID
+JOIN OHTM ON HTM1.teamID = OHTM.teamID
+WHERE OHTM.name = 'sales';</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -20278,7 +20674,7 @@
         </is>
       </c>
       <c r="G461" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H461" t="b">
         <v>0</v>
@@ -20366,7 +20762,7 @@
         </is>
       </c>
       <c r="G463" t="n">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="H463" t="b">
         <v>0</v>
@@ -20407,7 +20803,7 @@
         </is>
       </c>
       <c r="G464" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H464" t="b">
         <v>1</v>
@@ -20439,7 +20835,7 @@
         <is>
           <t>SELECT 
     SUM(OnHand) AS OnHand,
-    SUM(IsCommited) AS IsCommited,
+    SUM(IsCommited) AS Committed,
     SUM(OnOrder) AS OnOrder
 FROM OITM
 WHERE ItemName = 'USB Flashdrive 128GB';</t>
@@ -20451,7 +20847,7 @@
         </is>
       </c>
       <c r="G465" t="n">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="H465" t="b">
         <v>1</v>
@@ -20482,9 +20878,9 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>SELECT 
-    SUM(O.IsCommited) AS NumberCommitted,
-    I.Price AS PricePerItem,
-    SUM(O.IsCommited) * I.Price AS TotalPrice
+    O.IsCommited AS number_of_committed_items,
+    I.Price AS price_per_item,
+    O.IsCommited * I.Price AS total_price
 FROM OITM O
 JOIN ITM1 I ON O.ItemCode = I.ItemCode
 WHERE O.ItemName = 'Memory Chip';</t>
@@ -20496,14 +20892,14 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="H466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -20526,12 +20922,12 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>SELECT O.ItemName,
-       O.Consig,
-       O.LastPurPrc
-FROM ITM2 AS I
-JOIN OITM AS O ON I.ItemCode = O.ItemCode
-WHERE I.VendorCode = 'V1010';</t>
+          <t>SELECT OITM.ItemName,
+       OITM.Consig,
+       OITM.LastPurPrc
+FROM ITM2
+JOIN OITM ON ITM2.ItemCode = OITM.ItemCode
+WHERE ITM2.VendorCode = 'V1010';</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -20540,7 +20936,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="H467" t="b">
         <v>1</v>
@@ -20571,8 +20967,8 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>SELECT i.Height1, i.Width1, i.Length1, i.Volume
-FROM ITM4 i
-JOIN OITM o ON i.ItemCode = o.ItemCode
+FROM OITM o
+JOIN ITM4 i ON o.ItemCode = i.ItemCode
 WHERE o.ItemName = 'Printer Paper A4 White'
   AND i.QtyPerPack = 24;</t>
         </is>
@@ -20583,7 +20979,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="H468" t="b">
         <v>1</v>
@@ -20624,7 +21020,7 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="H469" t="b">
         <v>1</v>
@@ -20695,11 +21091,11 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>SELECT OBCD.BcdCode
+          <t>SELECT BcdCode
 FROM OBCD
-JOIN OITM ON OBCD.ItemCode = OITM.ItemCode
-WHERE OITM.ItemName = 'Printer Paper A4 White'
-  AND OBCD.UomEntry IN (3, 4);</t>
+JOIN OITM USING (ItemCode)
+WHERE ItemName = 'Printer Paper A4 White'
+  AND UomEntry IN (3, 4);</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -20708,7 +21104,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="H471" t="b">
         <v>1</v>
@@ -20749,7 +21145,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H472" t="b">
         <v>1</v>
@@ -20779,13 +21175,13 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>SELECT 
-    b.ItmsGrpNam AS ItemGroupName,
-    COUNT(i.ItmsGrpCod) AS ItemCount
-FROM OITB AS b
-LEFT JOIN OITM AS i
-    ON b.ItmsGrpCod = i.ItmsGrpCod
-GROUP BY b.ItmsGrpCod, b.ItmsGrpNam;</t>
+          <t>SELECT
+    OITB.ItmsGrpNam AS ItemGroupName,
+    COUNT(OITM.ItmsGrpCod) AS ItemCount
+FROM OITB
+LEFT JOIN OITM ON OITB.ItmsGrpCod = OITM.ItmsGrpCod
+GROUP BY OITB.ItmsGrpCod, OITB.ItmsGrpNam
+ORDER BY OITB.ItmsGrpNam;</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -20794,7 +21190,7 @@
         </is>
       </c>
       <c r="G473" t="n">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="H473" t="b">
         <v>1</v>
@@ -20824,9 +21220,9 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>SELECT AVG(itm4.Volume) AS avg_volume
-FROM OITM
-JOIN ITM4 ON OITM.ItemCode = ITM4.ItemCode
+          <t>SELECT AVG(ITM4.Volume) AS average_volume
+FROM ITM4
+JOIN OITM ON ITM4.ItemCode = OITM.ItemCode
 JOIN OITB ON OITM.ItmsGrpCod = OITB.ItmsGrpCod
 WHERE OITB.ItmsGrpNam = 'Items';</t>
         </is>
@@ -20837,7 +21233,7 @@
         </is>
       </c>
       <c r="G474" t="n">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="H474" t="b">
         <v>1</v>
@@ -20953,8 +21349,7 @@
         <is>
           <t>SELECT QCategory, COUNT(*) AS query_count
 FROM OUQR
-GROUP BY QCategory
-ORDER BY QCategory;</t>
+GROUP BY QCategory;</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -20963,7 +21358,7 @@
         </is>
       </c>
       <c r="G477" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H477" t="b">
         <v>1</v>
@@ -21004,7 +21399,7 @@
         </is>
       </c>
       <c r="G478" t="n">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H478" t="b">
         <v>1</v>
@@ -21111,7 +21506,8 @@
       <c r="E481" t="inlineStr">
         <is>
           <t>SELECT RDOC.DocCode, RTYP.CODE
-FROM RDOC, RTYP
+FROM RDOC
+JOIN RTYP ON RDOC.DocCode = RTYP.CODE
 WHERE RTYP.NAME LIKE '%Service Call%';</t>
         </is>
       </c>
@@ -21121,7 +21517,7 @@
         </is>
       </c>
       <c r="G481" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H481" t="b">
         <v>0</v>
@@ -21151,14 +21547,14 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SELECT
-    RDOC.DocCode,
-    RDOC.DocName,
-    COUNT(RITM.DocCode) AS ReportingElementCount
-FROM RDOC
-LEFT JOIN RITM ON RDOC.DocCode = RITM.DocCode
-WHERE RDOC.TypeCode = 'WTR1'
-GROUP BY RDOC.DocCode, RDOC.DocName;</t>
+          <t>SELECT 
+    d.DocCode,
+    d.DocName,
+    COUNT(i.DocCode) AS ReportingElementCount
+FROM RDOC d
+LEFT JOIN RITM i ON d.DocCode = i.DocCode
+WHERE d.TypeCode = 'WTR1'
+GROUP BY d.DocCode, d.DocName;</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -21167,7 +21563,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="H482" t="b">
         <v>1</v>
@@ -21208,7 +21604,7 @@
         </is>
       </c>
       <c r="G483" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H483" t="b">
         <v>1</v>
@@ -21253,7 +21649,7 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="H484" t="b">
         <v>1</v>
@@ -21285,7 +21681,7 @@
         <is>
           <t>SELECT
     CardGroup,
-    AVG(MaxSumLoc) AS average_potential_max_sales_amount_local_currency
+    AVG(MaxSumLoc) AS average_max_sales_opportunity_local_currency
 FROM OOPR
 GROUP BY CardGroup;</t>
         </is>
@@ -21296,7 +21692,7 @@
         </is>
       </c>
       <c r="G485" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H485" t="b">
         <v>1</v>
@@ -21337,7 +21733,7 @@
         </is>
       </c>
       <c r="G486" t="n">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="H486" t="b">
         <v>1</v>
@@ -21368,12 +21764,12 @@
       <c r="E487" t="inlineStr">
         <is>
           <t>SELECT 
-    o.OpprId AS SequenceNumber,
-    o.CardCode,
-    AVG(p.ClosePrcnt) AS AvgClosePrcnt
-FROM OOPR o
-JOIN OPR1 p ON o.OpprId = p.OpprId
-GROUP BY o.OpprId, o.CardCode;</t>
+    o.OpprId AS sequence_number,
+    p.CardCode,
+    AVG(o.ClosePrcnt) AS avg_percentage_rate
+FROM OPR1 o
+JOIN OOPR p ON o.OpprId = p.OpprId
+GROUP BY o.OpprId, p.CardCode;</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -21382,7 +21778,7 @@
         </is>
       </c>
       <c r="G487" t="n">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="H487" t="b">
         <v>1</v>
@@ -21423,7 +21819,7 @@
         </is>
       </c>
       <c r="G488" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="H488" t="b">
         <v>0</v>
@@ -21469,7 +21865,7 @@
         </is>
       </c>
       <c r="G489" t="n">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H489" t="b">
         <v>0</v>
@@ -21501,9 +21897,9 @@
         <is>
           <t>SELECT
     CardName,
-    SUM(RealSumLoc) + SUM(RealSumSys) AS TotalRealAmount,
-    SUM(RealProfL) + SUM(RealProfS) AS TotalRealGrossProfit,
-    AVG(CloPrcnt) AS AvgClosingPct
+    SUM(RealSumLoc) + SUM(RealSumSys) AS total_real_amount,
+    SUM(RealProfL) + SUM(RealProfS) AS total_real_gross_profit,
+    AVG(CloPrcnt) AS avg_closing_percentage
 FROM OOPR
 GROUP BY CardName;</t>
         </is>
@@ -21514,7 +21910,7 @@
         </is>
       </c>
       <c r="G490" t="n">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="H490" t="b">
         <v>0</v>
@@ -21555,7 +21951,7 @@
         </is>
       </c>
       <c r="G491" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="H491" t="b">
         <v>1</v>
@@ -21598,7 +21994,7 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H492" t="b">
         <v>1</v>
@@ -21671,7 +22067,7 @@
         <is>
           <t>SELECT 
     strftime('%Y', CreateDate) AS YearCreated,
-    AVG(SumProfL) AS AvgGrossProfitLocal
+    AVG(SumProfL) AS AvgGrossProfit
 FROM OOPR
 GROUP BY YearCreated
 ORDER BY YearCreated;</t>
@@ -21683,7 +22079,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="H494" t="b">
         <v>0</v>
@@ -21713,13 +22109,9 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>SELECT
-    ContractID,
-    COUNT(*) AS item_count
-FROM
-    CTR1
-GROUP BY
-    ContractID;</t>
+          <t>SELECT ContractID, COUNT(*) AS item_count
+FROM CTR1
+GROUP BY ContractID;</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -21728,7 +22120,7 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="H495" t="b">
         <v>1</v>
@@ -21769,7 +22161,7 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H496" t="b">
         <v>1</v>
@@ -21814,7 +22206,7 @@
         </is>
       </c>
       <c r="G497" t="n">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H497" t="b">
         <v>1</v>
@@ -21976,7 +22368,7 @@
        OSCL.resolOnDat
 FROM OSCL
 JOIN OSCO ON OSCL.origin = OSCO.originID
-WHERE OSCO.Name = 'Web';</t>
+WHERE OSCO.Name = 'web';</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -21985,14 +22377,14 @@
         </is>
       </c>
       <c r="G501" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="H501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22409,8 @@
         <is>
           <t>SELECT DISTINCT BPShipAddr, BPBillAddr, BPE_Mail
 FROM OSCL
-WHERE custmrName = 'Aquent Systems';</t>
+WHERE custmrName = 'Aquent Systems'
+LIMIT 1;</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -22026,7 +22419,7 @@
         </is>
       </c>
       <c r="G502" t="n">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="H502" t="b">
         <v>1</v>
@@ -22056,12 +22449,11 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>SELECT 
-    o.CstmrName AS CustomerName,
-    COUNT(*) AS CallCount
+          <t>SELECT o.CstmrName,
+       COUNT(*) AS call_count
 FROM OCTR o
-JOIN OSCL s ON s.customer = o.CstmrCode
-WHERE s.ContractTemplate = 'Silver Warranty'
+JOIN OSCL s ON o.CstmrCode = s.customer
+WHERE s.contract_template = 'Silver Warranty'
 GROUP BY o.CstmrName;</t>
         </is>
       </c>
@@ -22071,7 +22463,7 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>672</v>
+        <v>886</v>
       </c>
       <c r="H503" t="b">
         <v>0</v>
